--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1168778.845933306</v>
+        <v>1166327.220616621</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7232402.200656337</v>
+        <v>7232402.200656336</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>39.58387696184059</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>24.87477961344436</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.695996356597875</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>24.5704967621155</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W4" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="X4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,70 +893,70 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12.68669557114269</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="G5" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="H5" t="n">
-        <v>12.92549025883184</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="U7" t="n">
-        <v>39.58387696184059</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="V7" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,61 +1136,61 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>27.98943308627774</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G8" t="n">
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="S8" t="n">
-        <v>12.92549025883184</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1221,64 +1221,64 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H9" t="n">
+      <c r="S9" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1303,55 +1303,55 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H10" t="n">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>9.977552361264268</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I10" t="n">
-        <v>24.5704967621155</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>347.8963686578265</v>
+        <v>347.8963686578247</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>14.16351929855659</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>93.43664986691724</v>
       </c>
       <c r="S13" t="n">
         <v>191.5149050577661</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.9769949054714</v>
       </c>
       <c r="U13" t="n">
         <v>286.2173026179019</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>9.487166606065662</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>337.3065185075019</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>296.8950053612675</v>
       </c>
       <c r="I14" t="n">
-        <v>50.18709529452664</v>
+        <v>32.81057218134279</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.1259891509926</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>93.43664986691724</v>
       </c>
       <c r="S16" t="n">
         <v>191.5149050577661</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>4.736172306486798</v>
+        <v>257.2574917724992</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>347.8963686578237</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1901,7 +1901,7 @@
         <v>251.0130388479942</v>
       </c>
       <c r="V17" t="n">
-        <v>310.3757353569539</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>93.43664986691724</v>
       </c>
       <c r="S19" t="n">
         <v>191.5149050577661</v>
       </c>
       <c r="T19" t="n">
-        <v>104.316158026359</v>
+        <v>219.9769949054714</v>
       </c>
       <c r="U19" t="n">
         <v>286.2173026179019</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>222.872136759736</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.1450617671063</v>
+        <v>393.7685386539233</v>
       </c>
       <c r="H20" t="n">
         <v>296.8950053612675</v>
       </c>
       <c r="I20" t="n">
-        <v>32.8105721813458</v>
+        <v>50.18709529452664</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>22.24668843926657</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>16.61216864300811</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>93.43664986691724</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>191.5149050577661</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>93.43664986691724</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>191.5149050577661</v>
       </c>
       <c r="T25" t="n">
         <v>219.9769949054714</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>122.5064540017585</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>196.4441488249451</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>411.1450617671063</v>
       </c>
       <c r="H26" t="n">
-        <v>296.8950053612675</v>
+        <v>296.895005361267</v>
       </c>
       <c r="I26" t="n">
         <v>50.18709529452664</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.1259891509926</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.645714117422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>93.43664986691724</v>
       </c>
       <c r="S28" t="n">
         <v>191.5149050577661</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.9769949054714</v>
       </c>
       <c r="U28" t="n">
         <v>286.2173026179019</v>
       </c>
       <c r="V28" t="n">
-        <v>134.3614395359074</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>196.4441488249456</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,7 +2843,7 @@
         <v>114.2770334780397</v>
       </c>
       <c r="T29" t="n">
-        <v>204.8956239771352</v>
+        <v>204.8956239771354</v>
       </c>
       <c r="U29" t="n">
         <v>251.0130388479942</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>132.7194980319334</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>93.43664986691724</v>
       </c>
       <c r="S31" t="n">
         <v>191.5149050577661</v>
@@ -3007,16 +3007,16 @@
         <v>286.2173026179019</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.9238164729827</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3235,19 +3235,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>191.5149050577661</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.9769949054714</v>
       </c>
       <c r="U34" t="n">
-        <v>170.5564657387899</v>
+        <v>286.2173026179019</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>226.346752580342</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.77072379662775</v>
+        <v>62.77072379662779</v>
       </c>
       <c r="T35" t="n">
         <v>153.3893142957235</v>
@@ -3424,25 +3424,25 @@
         <v>128.3256705005254</v>
       </c>
       <c r="C37" t="n">
-        <v>115.7405114172159</v>
+        <v>115.740511417216</v>
       </c>
       <c r="D37" t="n">
-        <v>97.10916333680045</v>
+        <v>97.10916333680048</v>
       </c>
       <c r="E37" t="n">
-        <v>94.92765296515726</v>
+        <v>94.92765296515729</v>
       </c>
       <c r="F37" t="n">
-        <v>93.91473834151934</v>
+        <v>93.91473834151937</v>
       </c>
       <c r="G37" t="n">
         <v>114.6196794695807</v>
       </c>
       <c r="H37" t="n">
-        <v>94.13940443601012</v>
+        <v>94.13940443601014</v>
       </c>
       <c r="I37" t="n">
-        <v>47.85882337040873</v>
+        <v>47.85882337040876</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.93034018550533</v>
+        <v>41.93034018550536</v>
       </c>
       <c r="S37" t="n">
-        <v>140.0085953763542</v>
+        <v>140.0085953763543</v>
       </c>
       <c r="T37" t="n">
         <v>168.4706852240595</v>
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>331.2275319820687</v>
+        <v>331.2275319820686</v>
       </c>
       <c r="C38" t="n">
-        <v>313.7665820895957</v>
+        <v>313.7665820895956</v>
       </c>
       <c r="D38" t="n">
-        <v>303.1767319392711</v>
+        <v>303.176731939271</v>
       </c>
       <c r="E38" t="n">
-        <v>330.4240603908499</v>
+        <v>330.4240603908498</v>
       </c>
       <c r="F38" t="n">
         <v>355.3697360602995</v>
       </c>
       <c r="G38" t="n">
-        <v>359.6387520856944</v>
+        <v>359.6387520856943</v>
       </c>
       <c r="H38" t="n">
         <v>245.3886956798556</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.77072379662775</v>
+        <v>62.77072379662773</v>
       </c>
       <c r="T38" t="n">
         <v>153.3893142957235</v>
@@ -3569,7 +3569,7 @@
         <v>318.2247909970571</v>
       </c>
       <c r="Y38" t="n">
-        <v>334.7316289746417</v>
+        <v>334.7316289746416</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>128.3256705005254</v>
+        <v>128.3256705005253</v>
       </c>
       <c r="C40" t="n">
         <v>115.7405114172159</v>
       </c>
       <c r="D40" t="n">
-        <v>97.10916333680045</v>
+        <v>97.10916333680042</v>
       </c>
       <c r="E40" t="n">
-        <v>94.92765296515726</v>
+        <v>94.92765296515724</v>
       </c>
       <c r="F40" t="n">
-        <v>93.91473834151934</v>
+        <v>93.91473834151931</v>
       </c>
       <c r="G40" t="n">
-        <v>114.6196794695807</v>
+        <v>114.6196794695806</v>
       </c>
       <c r="H40" t="n">
-        <v>94.13940443601012</v>
+        <v>94.13940443601008</v>
       </c>
       <c r="I40" t="n">
-        <v>47.85882337040874</v>
+        <v>47.8588233704087</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.93034018550533</v>
+        <v>41.9303401855053</v>
       </c>
       <c r="S40" t="n">
         <v>140.0085953763542</v>
@@ -3715,7 +3715,7 @@
         <v>168.4706852240595</v>
       </c>
       <c r="U40" t="n">
-        <v>234.71099293649</v>
+        <v>234.7109929364899</v>
       </c>
       <c r="V40" t="n">
         <v>200.6313336424161</v>
@@ -3724,10 +3724,10 @@
         <v>235.0166886551791</v>
       </c>
       <c r="X40" t="n">
-        <v>174.2033457076253</v>
+        <v>174.2033457076252</v>
       </c>
       <c r="Y40" t="n">
-        <v>167.0783436706829</v>
+        <v>167.0783436706828</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.77072379662775</v>
+        <v>62.77072379662778</v>
       </c>
       <c r="T41" t="n">
         <v>153.3893142957235</v>
@@ -3901,22 +3901,22 @@
         <v>115.7405114172159</v>
       </c>
       <c r="D43" t="n">
-        <v>97.10916333680045</v>
+        <v>97.10916333680046</v>
       </c>
       <c r="E43" t="n">
-        <v>94.92765296515726</v>
+        <v>94.92765296515728</v>
       </c>
       <c r="F43" t="n">
-        <v>93.91473834151934</v>
+        <v>93.91473834151935</v>
       </c>
       <c r="G43" t="n">
         <v>114.6196794695807</v>
       </c>
       <c r="H43" t="n">
-        <v>94.13940443601012</v>
+        <v>94.13940443601014</v>
       </c>
       <c r="I43" t="n">
-        <v>47.85882337040874</v>
+        <v>47.85882337040875</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.93034018550533</v>
+        <v>41.93034018550534</v>
       </c>
       <c r="S43" t="n">
         <v>140.0085953763542</v>
@@ -3992,7 +3992,7 @@
         <v>359.6387520856944</v>
       </c>
       <c r="H44" t="n">
-        <v>245.3886956798556</v>
+        <v>245.3886956798567</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.77072379662776</v>
+        <v>62.77072379662777</v>
       </c>
       <c r="T44" t="n">
         <v>153.3893142957235</v>
@@ -4138,22 +4138,22 @@
         <v>115.7405114172159</v>
       </c>
       <c r="D46" t="n">
-        <v>97.10916333680045</v>
+        <v>97.10916333680046</v>
       </c>
       <c r="E46" t="n">
-        <v>94.92765296515726</v>
+        <v>94.92765296515728</v>
       </c>
       <c r="F46" t="n">
-        <v>93.91473834151915</v>
+        <v>93.91473834151935</v>
       </c>
       <c r="G46" t="n">
         <v>114.6196794695807</v>
       </c>
       <c r="H46" t="n">
-        <v>94.13940443601011</v>
+        <v>94.13940443601041</v>
       </c>
       <c r="I46" t="n">
-        <v>47.85882337040873</v>
+        <v>47.85882337040874</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.93034018550533</v>
+        <v>41.93034018550534</v>
       </c>
       <c r="S46" t="n">
         <v>140.0085953763542</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108.260178376266</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="C2" t="n">
-        <v>68.2764642733967</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="D2" t="n">
-        <v>68.2764642733967</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="E2" t="n">
-        <v>68.2764642733967</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="F2" t="n">
-        <v>28.29275017052741</v>
+        <v>21.34724942132394</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>5.889938799975404</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>5.889938799975404</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>5.889938799975404</v>
       </c>
       <c r="J2" t="n">
         <v>3.166710156947247</v>
@@ -4337,13 +4337,13 @@
         <v>79.95943146291799</v>
       </c>
       <c r="M2" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P2" t="n">
         <v>158.3355078473624</v>
@@ -4355,25 +4355,25 @@
         <v>108.260178376266</v>
       </c>
       <c r="S2" t="n">
-        <v>108.260178376266</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T2" t="n">
-        <v>108.260178376266</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="U2" t="n">
-        <v>108.260178376266</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="V2" t="n">
-        <v>108.260178376266</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="W2" t="n">
-        <v>108.260178376266</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="X2" t="n">
-        <v>108.260178376266</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="Y2" t="n">
-        <v>108.260178376266</v>
+        <v>28.29275017052741</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.920842809732961</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C3" t="n">
-        <v>3.920842809732961</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D3" t="n">
-        <v>3.920842809732961</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E3" t="n">
-        <v>3.920842809732961</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F3" t="n">
-        <v>3.920842809732961</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G3" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H3" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J3" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L3" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M3" t="n">
         <v>79.95943146291799</v>
       </c>
       <c r="N3" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="O3" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="P3" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="O3" t="n">
-        <v>119.1474696551402</v>
-      </c>
-      <c r="P3" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="Q3" t="n">
         <v>158.3355078473624</v>
@@ -4437,22 +4437,22 @@
         <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>123.8719851183408</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U3" t="n">
-        <v>83.88827101547153</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V3" t="n">
-        <v>43.90455691260225</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W3" t="n">
-        <v>43.90455691260225</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X3" t="n">
-        <v>3.920842809732961</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.920842809732961</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.66114634470771</v>
+        <v>13.245045875396</v>
       </c>
       <c r="C4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K4" t="n">
         <v>3.166710156947247</v>
@@ -4504,34 +4504,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R4" t="n">
-        <v>130.4472581485427</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S4" t="n">
-        <v>130.4472581485427</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T4" t="n">
-        <v>130.4472581485427</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U4" t="n">
-        <v>130.4472581485427</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="V4" t="n">
-        <v>105.6285745504463</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="W4" t="n">
-        <v>65.64486044757699</v>
+        <v>13.245045875396</v>
       </c>
       <c r="X4" t="n">
-        <v>25.66114634470771</v>
+        <v>13.245045875396</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.66114634470771</v>
+        <v>13.245045875396</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>148.2438924791353</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C5" t="n">
-        <v>148.2438924791353</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D5" t="n">
-        <v>108.260178376266</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E5" t="n">
-        <v>108.260178376266</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F5" t="n">
-        <v>68.2764642733967</v>
+        <v>31.43886478955102</v>
       </c>
       <c r="G5" t="n">
-        <v>28.29275017052741</v>
+        <v>15.98155416820249</v>
       </c>
       <c r="H5" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
         <v>3.166710156947247</v>
@@ -4571,46 +4571,46 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L5" t="n">
-        <v>79.95943146291799</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M5" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N5" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P5" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U5" t="n">
-        <v>148.2438924791353</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V5" t="n">
-        <v>148.2438924791353</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W5" t="n">
-        <v>148.2438924791353</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X5" t="n">
-        <v>148.2438924791353</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y5" t="n">
-        <v>148.2438924791353</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.88827101547153</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="C6" t="n">
         <v>43.90455691260225</v>
@@ -4656,10 +4656,10 @@
         <v>42.35474834916943</v>
       </c>
       <c r="N6" t="n">
-        <v>79.95943146291799</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="P6" t="n">
         <v>119.1474696551402</v>
@@ -4671,19 +4671,19 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="V6" t="n">
         <v>123.8719851183408</v>
       </c>
       <c r="W6" t="n">
-        <v>83.88827101547153</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="X6" t="n">
         <v>83.88827101547153</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K7" t="n">
         <v>3.166710156947247</v>
@@ -4747,28 +4747,28 @@
         <v>130.4472581485427</v>
       </c>
       <c r="R7" t="n">
-        <v>130.4472581485427</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="S7" t="n">
-        <v>130.4472581485427</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="T7" t="n">
-        <v>90.46354404567346</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="U7" t="n">
-        <v>50.47982994280417</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V7" t="n">
-        <v>25.66114634470771</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W7" t="n">
-        <v>25.66114634470771</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X7" t="n">
-        <v>25.66114634470771</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.66114634470771</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95.20412760976917</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C8" t="n">
-        <v>95.20412760976917</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D8" t="n">
-        <v>95.20412760976917</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E8" t="n">
-        <v>95.20412760976917</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F8" t="n">
-        <v>55.22041350689989</v>
+        <v>31.43886478955102</v>
       </c>
       <c r="G8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J8" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>79.95943146291799</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M8" t="n">
+        <v>81.54278654139161</v>
+      </c>
+      <c r="N8" t="n">
+        <v>81.54278654139161</v>
+      </c>
+      <c r="O8" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="N8" t="n">
-        <v>158.3355078473624</v>
-      </c>
-      <c r="O8" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P8" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S8" t="n">
-        <v>95.20412760976917</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T8" t="n">
-        <v>95.20412760976917</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U8" t="n">
-        <v>95.20412760976917</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V8" t="n">
-        <v>95.20412760976917</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W8" t="n">
-        <v>95.20412760976917</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X8" t="n">
-        <v>95.20412760976917</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y8" t="n">
-        <v>95.20412760976917</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>123.8719851183408</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>83.88827101547153</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="L9" t="n">
         <v>42.35474834916943</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>81.54278654139161</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>120.7308247336138</v>
       </c>
-      <c r="N9" t="n">
-        <v>158.3355078473624</v>
-      </c>
       <c r="O9" t="n">
-        <v>158.3355078473624</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P9" t="n">
-        <v>158.3355078473624</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="Q9" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G10" t="n">
-        <v>90.46354404567346</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H10" t="n">
-        <v>50.47982994280417</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
         <v>3.166710156947247</v>
@@ -4978,34 +4978,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4472581485427</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R10" t="n">
-        <v>130.4472581485427</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S10" t="n">
-        <v>130.4472581485427</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T10" t="n">
-        <v>130.4472581485427</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U10" t="n">
-        <v>130.4472581485427</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V10" t="n">
-        <v>130.4472581485427</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2367.89386168332</v>
+        <v>2367.893861683319</v>
       </c>
       <c r="C11" t="n">
         <v>2016.483388291577</v>
@@ -5027,64 +5027,64 @@
         <v>1272.429437086582</v>
       </c>
       <c r="F11" t="n">
-        <v>861.4435322969746</v>
+        <v>861.4435322969742</v>
       </c>
       <c r="G11" t="n">
-        <v>446.1454901079782</v>
+        <v>446.145490107978</v>
       </c>
       <c r="H11" t="n">
-        <v>146.251545298617</v>
+        <v>146.2515452986169</v>
       </c>
       <c r="I11" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="J11" t="n">
-        <v>433.0764698855781</v>
+        <v>433.076469885578</v>
       </c>
       <c r="K11" t="n">
-        <v>1059.674702765482</v>
+        <v>969.9847585458863</v>
       </c>
       <c r="L11" t="n">
-        <v>1475.817243396175</v>
+        <v>1799.611901581525</v>
       </c>
       <c r="M11" t="n">
-        <v>1970.525439375321</v>
+        <v>2739.338495718575</v>
       </c>
       <c r="N11" t="n">
-        <v>2708.814854089418</v>
+        <v>3679.638851056857</v>
       </c>
       <c r="O11" t="n">
-        <v>3551.526178025842</v>
+        <v>4145.357995543163</v>
       </c>
       <c r="P11" t="n">
-        <v>4233.086413282503</v>
+        <v>4508.337509710057</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.688005925696</v>
+        <v>4732.747261599945</v>
       </c>
       <c r="R11" t="n">
-        <v>4777.875482378999</v>
+        <v>4777.875482378996</v>
       </c>
       <c r="S11" t="n">
-        <v>4662.444135431483</v>
+        <v>4662.444135431481</v>
       </c>
       <c r="T11" t="n">
-        <v>4455.478858686902</v>
+        <v>4455.4788586869</v>
       </c>
       <c r="U11" t="n">
-        <v>4201.930334598019</v>
+        <v>4201.930334598017</v>
       </c>
       <c r="V11" t="n">
-        <v>3870.867447254448</v>
+        <v>3870.867447254446</v>
       </c>
       <c r="W11" t="n">
-        <v>3518.098791984334</v>
+        <v>3518.098791984332</v>
       </c>
       <c r="X11" t="n">
-        <v>3144.633033723254</v>
+        <v>3144.633033723252</v>
       </c>
       <c r="Y11" t="n">
-        <v>2754.493701747442</v>
+        <v>2754.493701747441</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5112,19 @@
         <v>200.1601608034433</v>
       </c>
       <c r="H12" t="n">
-        <v>108.4925355673538</v>
+        <v>108.4925355673537</v>
       </c>
       <c r="I12" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="J12" t="n">
         <v>302.8881104459712</v>
       </c>
       <c r="K12" t="n">
-        <v>522.0493888150079</v>
+        <v>522.0493888150078</v>
       </c>
       <c r="L12" t="n">
-        <v>863.0613149189401</v>
+        <v>863.06131491894</v>
       </c>
       <c r="M12" t="n">
         <v>1280.363016361062</v>
@@ -5133,13 +5133,13 @@
         <v>1723.118097036137</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.93270142902</v>
+        <v>2123.875211301152</v>
       </c>
       <c r="P12" t="n">
-        <v>2393.842104742718</v>
+        <v>2411.784614614851</v>
       </c>
       <c r="Q12" t="n">
-        <v>2591.905199910157</v>
+        <v>2554.325229722092</v>
       </c>
       <c r="R12" t="n">
         <v>2591.905199910157</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>428.9169171378798</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="C13" t="n">
-        <v>259.9807342099729</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="D13" t="n">
-        <v>109.8640947976371</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="E13" t="n">
-        <v>109.8640947976371</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="F13" t="n">
-        <v>109.8640947976371</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="G13" t="n">
-        <v>109.8640947976371</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="H13" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="I13" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="J13" t="n">
-        <v>133.6681809232546</v>
+        <v>133.6681809232545</v>
       </c>
       <c r="K13" t="n">
-        <v>326.1325576783911</v>
+        <v>326.132557678391</v>
       </c>
       <c r="L13" t="n">
-        <v>627.9471313622221</v>
+        <v>627.9471313622219</v>
       </c>
       <c r="M13" t="n">
-        <v>956.5574048804989</v>
+        <v>956.5574048804988</v>
       </c>
       <c r="N13" t="n">
         <v>1282.78867699644</v>
       </c>
       <c r="O13" t="n">
-        <v>1568.099763342498</v>
+        <v>1568.099763342497</v>
       </c>
       <c r="P13" t="n">
         <v>1788.712004495913</v>
@@ -5221,28 +5221,28 @@
         <v>1858.017404885475</v>
       </c>
       <c r="R13" t="n">
-        <v>1858.017404885475</v>
+        <v>1763.636950474447</v>
       </c>
       <c r="S13" t="n">
-        <v>1664.568005837226</v>
+        <v>1570.187551426199</v>
       </c>
       <c r="T13" t="n">
-        <v>1664.568005837226</v>
+        <v>1347.988566673197</v>
       </c>
       <c r="U13" t="n">
-        <v>1375.459619354497</v>
+        <v>1058.880180190468</v>
       </c>
       <c r="V13" t="n">
-        <v>1120.77513114861</v>
+        <v>804.1956919845811</v>
       </c>
       <c r="W13" t="n">
-        <v>831.3579611116496</v>
+        <v>514.7785219476204</v>
       </c>
       <c r="X13" t="n">
-        <v>831.3579611116496</v>
+        <v>286.7889710496031</v>
       </c>
       <c r="Y13" t="n">
-        <v>610.5653819681195</v>
+        <v>277.2059744778196</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2367.893861683321</v>
+        <v>2367.893861683318</v>
       </c>
       <c r="C14" t="n">
-        <v>1998.931344742909</v>
+        <v>1998.931344742907</v>
       </c>
       <c r="D14" t="n">
-        <v>1658.217689684826</v>
+        <v>1640.665646136156</v>
       </c>
       <c r="E14" t="n">
-        <v>1272.429437086582</v>
+        <v>1254.877393537912</v>
       </c>
       <c r="F14" t="n">
-        <v>861.4435322969746</v>
+        <v>843.8914887483045</v>
       </c>
       <c r="G14" t="n">
-        <v>446.1454901079783</v>
+        <v>428.5934465593082</v>
       </c>
       <c r="H14" t="n">
-        <v>146.251545298617</v>
+        <v>128.6995017499464</v>
       </c>
       <c r="I14" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="J14" t="n">
-        <v>433.0764698855781</v>
+        <v>433.076469885578</v>
       </c>
       <c r="K14" t="n">
-        <v>789.6375434335105</v>
+        <v>738.7707443200291</v>
       </c>
       <c r="L14" t="n">
-        <v>1205.780084064203</v>
+        <v>1568.397887355668</v>
       </c>
       <c r="M14" t="n">
-        <v>2145.506678201254</v>
+        <v>2411.679794672302</v>
       </c>
       <c r="N14" t="n">
-        <v>3085.807033539535</v>
+        <v>2919.00669484272</v>
       </c>
       <c r="O14" t="n">
-        <v>3551.526178025842</v>
+        <v>3761.718018779144</v>
       </c>
       <c r="P14" t="n">
-        <v>4233.086413282503</v>
+        <v>4443.278254035805</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.688005925696</v>
+        <v>4667.688005925693</v>
       </c>
       <c r="R14" t="n">
-        <v>4777.875482378999</v>
+        <v>4777.875482378996</v>
       </c>
       <c r="S14" t="n">
-        <v>4662.444135431483</v>
+        <v>4662.444135431481</v>
       </c>
       <c r="T14" t="n">
-        <v>4455.478858686902</v>
+        <v>4455.4788586869</v>
       </c>
       <c r="U14" t="n">
-        <v>4201.930334598019</v>
+        <v>4201.930334598017</v>
       </c>
       <c r="V14" t="n">
-        <v>3870.867447254449</v>
+        <v>3870.867447254446</v>
       </c>
       <c r="W14" t="n">
-        <v>3518.098791984335</v>
+        <v>3518.098791984332</v>
       </c>
       <c r="X14" t="n">
-        <v>3144.633033723255</v>
+        <v>3144.633033723252</v>
       </c>
       <c r="Y14" t="n">
-        <v>2754.493701747443</v>
+        <v>2754.49370174744</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>200.1601608034433</v>
       </c>
       <c r="H15" t="n">
-        <v>108.4925355673538</v>
+        <v>108.4925355673537</v>
       </c>
       <c r="I15" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="J15" t="n">
-        <v>302.8881104459712</v>
+        <v>178.0579854589664</v>
       </c>
       <c r="K15" t="n">
-        <v>577.5718688752063</v>
+        <v>397.219263828003</v>
       </c>
       <c r="L15" t="n">
-        <v>918.5837949791385</v>
+        <v>738.2311899319352</v>
       </c>
       <c r="M15" t="n">
-        <v>1335.88549642126</v>
+        <v>1155.532891374057</v>
       </c>
       <c r="N15" t="n">
-        <v>1778.640577096335</v>
+        <v>1598.287972049132</v>
       </c>
       <c r="O15" t="n">
-        <v>2161.455181489218</v>
+        <v>1981.102576442015</v>
       </c>
       <c r="P15" t="n">
-        <v>2449.364584802916</v>
+        <v>2269.011979755713</v>
       </c>
       <c r="Q15" t="n">
         <v>2591.905199910157</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.361539093027</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="C16" t="n">
-        <v>263.361539093027</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="D16" t="n">
-        <v>263.361539093027</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="E16" t="n">
-        <v>263.361539093027</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="F16" t="n">
-        <v>263.361539093027</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="G16" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="H16" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="I16" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="J16" t="n">
-        <v>133.6681809232546</v>
+        <v>133.6681809232545</v>
       </c>
       <c r="K16" t="n">
         <v>326.132557678391</v>
       </c>
       <c r="L16" t="n">
-        <v>627.9471313622219</v>
+        <v>627.947131362222</v>
       </c>
       <c r="M16" t="n">
-        <v>956.5574048804988</v>
+        <v>956.557404880499</v>
       </c>
       <c r="N16" t="n">
         <v>1282.78867699644</v>
       </c>
       <c r="O16" t="n">
-        <v>1568.099763342497</v>
+        <v>1568.099763342498</v>
       </c>
       <c r="P16" t="n">
         <v>1788.712004495913</v>
@@ -5458,28 +5458,28 @@
         <v>1858.017404885475</v>
       </c>
       <c r="R16" t="n">
-        <v>1858.017404885475</v>
+        <v>1763.636950474447</v>
       </c>
       <c r="S16" t="n">
-        <v>1664.568005837226</v>
+        <v>1570.187551426199</v>
       </c>
       <c r="T16" t="n">
-        <v>1442.369021084225</v>
+        <v>1347.988566673197</v>
       </c>
       <c r="U16" t="n">
-        <v>1153.260634601496</v>
+        <v>1058.880180190468</v>
       </c>
       <c r="V16" t="n">
-        <v>898.576146395609</v>
+        <v>804.1956919845811</v>
       </c>
       <c r="W16" t="n">
-        <v>893.7921339648142</v>
+        <v>544.3396396891274</v>
       </c>
       <c r="X16" t="n">
-        <v>665.8025830667968</v>
+        <v>316.35008879111</v>
       </c>
       <c r="Y16" t="n">
-        <v>445.0100039232667</v>
+        <v>95.55750964757992</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2385.445905231988</v>
+        <v>2367.893861683317</v>
       </c>
       <c r="C17" t="n">
         <v>2016.483388291577</v>
@@ -5504,16 +5504,16 @@
         <v>861.4435322969744</v>
       </c>
       <c r="G17" t="n">
-        <v>446.1454901079781</v>
+        <v>446.145490107978</v>
       </c>
       <c r="H17" t="n">
-        <v>146.251545298617</v>
+        <v>146.2515452986169</v>
       </c>
       <c r="I17" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="J17" t="n">
-        <v>433.0764698855781</v>
+        <v>433.076469885578</v>
       </c>
       <c r="K17" t="n">
         <v>1059.674702765482</v>
@@ -5522,43 +5522,43 @@
         <v>1889.301845801121</v>
       </c>
       <c r="M17" t="n">
-        <v>2578.480133369118</v>
+        <v>2384.010041780267</v>
       </c>
       <c r="N17" t="n">
-        <v>3085.807033539535</v>
+        <v>3324.310397118549</v>
       </c>
       <c r="O17" t="n">
-        <v>3551.526178025842</v>
+        <v>3790.029541604855</v>
       </c>
       <c r="P17" t="n">
-        <v>4233.086413282503</v>
+        <v>4233.086413282499</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.688005925696</v>
+        <v>4667.688005925693</v>
       </c>
       <c r="R17" t="n">
-        <v>4777.875482378999</v>
+        <v>4777.875482378996</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.444135431484</v>
+        <v>4662.444135431481</v>
       </c>
       <c r="T17" t="n">
-        <v>4455.478858686903</v>
+        <v>4455.4788586869</v>
       </c>
       <c r="U17" t="n">
-        <v>4201.93033459802</v>
+        <v>4201.930334598016</v>
       </c>
       <c r="V17" t="n">
-        <v>3888.419490803116</v>
+        <v>3870.867447254445</v>
       </c>
       <c r="W17" t="n">
-        <v>3535.650835533002</v>
+        <v>3518.098791984331</v>
       </c>
       <c r="X17" t="n">
-        <v>3162.185077271922</v>
+        <v>3144.633033723251</v>
       </c>
       <c r="Y17" t="n">
-        <v>2772.04574529611</v>
+        <v>2754.493701747439</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>200.1601608034433</v>
       </c>
       <c r="H18" t="n">
-        <v>108.4925355673538</v>
+        <v>108.4925355673537</v>
       </c>
       <c r="I18" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="J18" t="n">
-        <v>178.0579854589665</v>
+        <v>302.8881104459712</v>
       </c>
       <c r="K18" t="n">
-        <v>397.2192638280031</v>
+        <v>577.5718688752063</v>
       </c>
       <c r="L18" t="n">
-        <v>738.2311899319352</v>
+        <v>918.5837949791385</v>
       </c>
       <c r="M18" t="n">
-        <v>1155.532891374057</v>
+        <v>1335.88549642126</v>
       </c>
       <c r="N18" t="n">
-        <v>1598.287972049132</v>
+        <v>1778.640577096335</v>
       </c>
       <c r="O18" t="n">
-        <v>1981.102576442015</v>
+        <v>2161.455181489218</v>
       </c>
       <c r="P18" t="n">
-        <v>2269.011979755713</v>
+        <v>2449.364584802916</v>
       </c>
       <c r="Q18" t="n">
         <v>2591.905199910157</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="C19" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="D19" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="E19" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="F19" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="G19" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="H19" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="I19" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="J19" t="n">
-        <v>133.6681809232546</v>
+        <v>133.6681809232545</v>
       </c>
       <c r="K19" t="n">
         <v>326.132557678391</v>
@@ -5695,28 +5695,28 @@
         <v>1858.017404885475</v>
       </c>
       <c r="R19" t="n">
-        <v>1858.017404885475</v>
+        <v>1763.636950474447</v>
       </c>
       <c r="S19" t="n">
-        <v>1664.568005837226</v>
+        <v>1570.187551426199</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.198149244944</v>
+        <v>1347.988566673197</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.089762762215</v>
+        <v>1058.880180190468</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.405274556328</v>
+        <v>833.756809726088</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9881045193672</v>
+        <v>544.3396396891274</v>
       </c>
       <c r="X19" t="n">
-        <v>497.9985536213499</v>
+        <v>316.35008879111</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2059744778197</v>
+        <v>95.55750964757992</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2367.893861683321</v>
+        <v>2367.893861683319</v>
       </c>
       <c r="C20" t="n">
-        <v>1998.931344742909</v>
+        <v>1998.931344742907</v>
       </c>
       <c r="D20" t="n">
-        <v>1640.665646136159</v>
+        <v>1640.665646136157</v>
       </c>
       <c r="E20" t="n">
-        <v>1254.877393537915</v>
+        <v>1254.877393537912</v>
       </c>
       <c r="F20" t="n">
-        <v>843.8914887483071</v>
+        <v>843.8914887483047</v>
       </c>
       <c r="G20" t="n">
-        <v>428.5934465593108</v>
+        <v>446.145490107978</v>
       </c>
       <c r="H20" t="n">
-        <v>128.6995017499495</v>
+        <v>146.2515452986169</v>
       </c>
       <c r="I20" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="J20" t="n">
-        <v>433.0764698855781</v>
+        <v>433.076469885578</v>
       </c>
       <c r="K20" t="n">
-        <v>1059.674702765482</v>
+        <v>738.7707443200291</v>
       </c>
       <c r="L20" t="n">
-        <v>1889.301845801121</v>
+        <v>1568.397887355668</v>
       </c>
       <c r="M20" t="n">
-        <v>2384.010041780267</v>
+        <v>2063.106083334814</v>
       </c>
       <c r="N20" t="n">
-        <v>2891.336941950685</v>
+        <v>3003.406438673096</v>
       </c>
       <c r="O20" t="n">
-        <v>3734.048265887109</v>
+        <v>3826.777274453396</v>
       </c>
       <c r="P20" t="n">
-        <v>4233.086413282503</v>
+        <v>4508.337509710057</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.688005925696</v>
+        <v>4732.747261599945</v>
       </c>
       <c r="R20" t="n">
-        <v>4777.875482378999</v>
+        <v>4777.875482378996</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.444135431484</v>
+        <v>4662.444135431481</v>
       </c>
       <c r="T20" t="n">
-        <v>4455.478858686903</v>
+        <v>4455.4788586869</v>
       </c>
       <c r="U20" t="n">
-        <v>4201.93033459802</v>
+        <v>4201.930334598017</v>
       </c>
       <c r="V20" t="n">
-        <v>3870.867447254449</v>
+        <v>3870.867447254446</v>
       </c>
       <c r="W20" t="n">
-        <v>3518.098791984335</v>
+        <v>3518.098791984332</v>
       </c>
       <c r="X20" t="n">
-        <v>3144.633033723255</v>
+        <v>3144.633033723252</v>
       </c>
       <c r="Y20" t="n">
-        <v>2754.493701747443</v>
+        <v>2754.493701747441</v>
       </c>
     </row>
     <row r="21">
@@ -5823,16 +5823,16 @@
         <v>200.1601608034433</v>
       </c>
       <c r="H21" t="n">
-        <v>108.4925355673538</v>
+        <v>108.4925355673537</v>
       </c>
       <c r="I21" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="J21" t="n">
-        <v>302.8881104459712</v>
+        <v>178.0579854589664</v>
       </c>
       <c r="K21" t="n">
-        <v>577.5718688752063</v>
+        <v>397.219263828003</v>
       </c>
       <c r="L21" t="n">
         <v>918.5837949791385</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>112.3374779738508</v>
+        <v>268.1455515238213</v>
       </c>
       <c r="C22" t="n">
-        <v>112.3374779738508</v>
+        <v>245.6741490599156</v>
       </c>
       <c r="D22" t="n">
-        <v>112.3374779738508</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="E22" t="n">
-        <v>112.3374779738508</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="F22" t="n">
-        <v>112.3374779738508</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="G22" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="H22" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="I22" t="n">
-        <v>95.55750964757998</v>
+        <v>95.55750964757992</v>
       </c>
       <c r="J22" t="n">
-        <v>133.6681809232546</v>
+        <v>133.6681809232545</v>
       </c>
       <c r="K22" t="n">
-        <v>326.1325576783911</v>
+        <v>326.132557678391</v>
       </c>
       <c r="L22" t="n">
         <v>627.9471313622217</v>
       </c>
       <c r="M22" t="n">
-        <v>956.5574048804988</v>
+        <v>956.5574048804987</v>
       </c>
       <c r="N22" t="n">
         <v>1282.78867699644</v>
@@ -5932,28 +5932,28 @@
         <v>1858.017404885475</v>
       </c>
       <c r="R22" t="n">
-        <v>1763.636950474447</v>
+        <v>1858.017404885475</v>
       </c>
       <c r="S22" t="n">
-        <v>1570.187551426199</v>
+        <v>1664.568005837226</v>
       </c>
       <c r="T22" t="n">
-        <v>1347.988566673197</v>
+        <v>1442.369021084225</v>
       </c>
       <c r="U22" t="n">
-        <v>1058.880180190468</v>
+        <v>1153.260634601495</v>
       </c>
       <c r="V22" t="n">
-        <v>804.195691984581</v>
+        <v>898.5761463956086</v>
       </c>
       <c r="W22" t="n">
-        <v>514.7785219476206</v>
+        <v>898.5761463956086</v>
       </c>
       <c r="X22" t="n">
-        <v>514.7785219476206</v>
+        <v>670.5865954975912</v>
       </c>
       <c r="Y22" t="n">
-        <v>293.9859428040905</v>
+        <v>449.794016354061</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2385.804110202369</v>
+        <v>2385.80411020237</v>
       </c>
       <c r="C23" t="n">
-        <v>2016.841593261957</v>
+        <v>2016.841593261958</v>
       </c>
       <c r="D23" t="n">
-        <v>1658.575894655207</v>
+        <v>1658.575894655208</v>
       </c>
       <c r="E23" t="n">
         <v>1272.787642056963</v>
       </c>
       <c r="F23" t="n">
-        <v>861.8017372673551</v>
+        <v>861.801737267356</v>
       </c>
       <c r="G23" t="n">
         <v>446.5036950783597</v>
@@ -5993,16 +5993,16 @@
         <v>1060.032907735863</v>
       </c>
       <c r="L23" t="n">
-        <v>1724.6900064589</v>
+        <v>1889.660050771502</v>
       </c>
       <c r="M23" t="n">
-        <v>2219.398202438047</v>
+        <v>2829.386644908552</v>
       </c>
       <c r="N23" t="n">
-        <v>2726.725102608465</v>
+        <v>3336.71354507897</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.436426544888</v>
+        <v>3802.432689565276</v>
       </c>
       <c r="P23" t="n">
         <v>4250.99666180155</v>
@@ -6023,16 +6023,16 @@
         <v>4219.840583117068</v>
       </c>
       <c r="V23" t="n">
-        <v>3888.777695773497</v>
+        <v>3888.777695773498</v>
       </c>
       <c r="W23" t="n">
-        <v>3536.009040503382</v>
+        <v>3536.009040503383</v>
       </c>
       <c r="X23" t="n">
-        <v>3162.543282242303</v>
+        <v>3162.543282242304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2772.403950266491</v>
+        <v>2772.403950266492</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>95.91571461796093</v>
       </c>
       <c r="J24" t="n">
-        <v>303.2463154163522</v>
+        <v>178.4161904293474</v>
       </c>
       <c r="K24" t="n">
-        <v>577.9300738455872</v>
+        <v>397.5774687983841</v>
       </c>
       <c r="L24" t="n">
-        <v>918.9419999495194</v>
+        <v>738.5893949023163</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.243701391641</v>
+        <v>1155.891096344438</v>
       </c>
       <c r="N24" t="n">
         <v>1778.998782066716</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>243.828808200354</v>
+        <v>95.91571461796093</v>
       </c>
       <c r="C25" t="n">
-        <v>243.828808200354</v>
+        <v>95.91571461796093</v>
       </c>
       <c r="D25" t="n">
-        <v>243.828808200354</v>
+        <v>95.91571461796093</v>
       </c>
       <c r="E25" t="n">
         <v>95.91571461796093</v>
       </c>
       <c r="F25" t="n">
-        <v>95.91571461796094</v>
+        <v>95.91571461796093</v>
       </c>
       <c r="G25" t="n">
-        <v>95.91571461796094</v>
+        <v>95.91571461796093</v>
       </c>
       <c r="H25" t="n">
-        <v>95.91571461796094</v>
+        <v>95.91571461796093</v>
       </c>
       <c r="I25" t="n">
-        <v>95.91571461796094</v>
+        <v>95.91571461796093</v>
       </c>
       <c r="J25" t="n">
         <v>134.0263858936355</v>
@@ -6151,16 +6151,16 @@
         <v>326.490762648772</v>
       </c>
       <c r="L25" t="n">
-        <v>628.3053363326029</v>
+        <v>628.3053363326028</v>
       </c>
       <c r="M25" t="n">
-        <v>956.9156098508798</v>
+        <v>956.9156098508797</v>
       </c>
       <c r="N25" t="n">
         <v>1283.146881966821</v>
       </c>
       <c r="O25" t="n">
-        <v>1568.457968312879</v>
+        <v>1568.457968312878</v>
       </c>
       <c r="P25" t="n">
         <v>1789.070209466294</v>
@@ -6172,25 +6172,25 @@
         <v>1763.995155444828</v>
       </c>
       <c r="S25" t="n">
-        <v>1763.995155444828</v>
+        <v>1570.545756396579</v>
       </c>
       <c r="T25" t="n">
-        <v>1541.796170691827</v>
+        <v>1348.346771643578</v>
       </c>
       <c r="U25" t="n">
-        <v>1252.687784209097</v>
+        <v>1059.238385160849</v>
       </c>
       <c r="V25" t="n">
-        <v>998.0032960032105</v>
+        <v>804.5538969549619</v>
       </c>
       <c r="W25" t="n">
-        <v>874.2594030721413</v>
+        <v>515.1367269180013</v>
       </c>
       <c r="X25" t="n">
-        <v>646.2698521741239</v>
+        <v>316.7082937614911</v>
       </c>
       <c r="Y25" t="n">
-        <v>425.4772730305938</v>
+        <v>95.91571461796093</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2385.80411020237</v>
+        <v>2385.804110202369</v>
       </c>
       <c r="C26" t="n">
-        <v>2016.841593261958</v>
+        <v>2016.841593261957</v>
       </c>
       <c r="D26" t="n">
         <v>1658.575894655207</v>
       </c>
       <c r="E26" t="n">
-        <v>1272.787642056963</v>
+        <v>1272.787642056962</v>
       </c>
       <c r="F26" t="n">
-        <v>861.8017372673553</v>
+        <v>861.8017372673548</v>
       </c>
       <c r="G26" t="n">
-        <v>446.503695078359</v>
+        <v>446.5036950783586</v>
       </c>
       <c r="H26" t="n">
         <v>146.609750268998</v>
@@ -6224,25 +6224,25 @@
         <v>95.91571461796094</v>
       </c>
       <c r="J26" t="n">
-        <v>433.434674855959</v>
+        <v>266.029025835606</v>
       </c>
       <c r="K26" t="n">
-        <v>739.1289492904101</v>
+        <v>892.6272587155102</v>
       </c>
       <c r="L26" t="n">
-        <v>1155.271489921103</v>
+        <v>1308.769799346203</v>
       </c>
       <c r="M26" t="n">
-        <v>2094.998084058153</v>
+        <v>1996.616588023489</v>
       </c>
       <c r="N26" t="n">
-        <v>2726.725102608466</v>
+        <v>2936.916943361771</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.43642654489</v>
+        <v>3779.628267298195</v>
       </c>
       <c r="P26" t="n">
-        <v>4250.996661801551</v>
+        <v>4461.188502554856</v>
       </c>
       <c r="Q26" t="n">
         <v>4685.598254444744</v>
@@ -6260,16 +6260,16 @@
         <v>4219.840583117068</v>
       </c>
       <c r="V26" t="n">
-        <v>3888.777695773498</v>
+        <v>3888.777695773497</v>
       </c>
       <c r="W26" t="n">
-        <v>3536.009040503383</v>
+        <v>3536.009040503382</v>
       </c>
       <c r="X26" t="n">
-        <v>3162.543282242304</v>
+        <v>3162.543282242302</v>
       </c>
       <c r="Y26" t="n">
-        <v>2772.403950266492</v>
+        <v>2772.403950266491</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>95.91571461796094</v>
       </c>
       <c r="J27" t="n">
-        <v>303.2463154163522</v>
+        <v>178.4161904293475</v>
       </c>
       <c r="K27" t="n">
-        <v>577.9300738455877</v>
+        <v>397.5774687983841</v>
       </c>
       <c r="L27" t="n">
-        <v>918.9419999495199</v>
+        <v>738.5893949023163</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.243701391641</v>
+        <v>1298.663731203576</v>
       </c>
       <c r="N27" t="n">
-        <v>1778.998782066717</v>
+        <v>1741.418811878651</v>
       </c>
       <c r="O27" t="n">
-        <v>2161.813386459599</v>
+        <v>2124.233416271534</v>
       </c>
       <c r="P27" t="n">
-        <v>2449.722789773298</v>
+        <v>2412.142819585232</v>
       </c>
       <c r="Q27" t="n">
-        <v>2592.263404880538</v>
+        <v>2554.683434692473</v>
       </c>
       <c r="R27" t="n">
         <v>2592.263404880538</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>729.8894493505416</v>
+        <v>95.91571461796062</v>
       </c>
       <c r="C28" t="n">
-        <v>560.9532664226347</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="D28" t="n">
-        <v>410.8366270102989</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="E28" t="n">
-        <v>410.8366270102989</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="F28" t="n">
-        <v>410.8366270102989</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="G28" t="n">
-        <v>243.0325975648519</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="H28" t="n">
         <v>95.91571461796094</v>
@@ -6388,16 +6388,16 @@
         <v>326.490762648772</v>
       </c>
       <c r="L28" t="n">
-        <v>628.3053363326029</v>
+        <v>628.3053363326028</v>
       </c>
       <c r="M28" t="n">
-        <v>956.9156098508798</v>
+        <v>956.9156098508797</v>
       </c>
       <c r="N28" t="n">
         <v>1283.146881966821</v>
       </c>
       <c r="O28" t="n">
-        <v>1568.457968312879</v>
+        <v>1568.457968312878</v>
       </c>
       <c r="P28" t="n">
         <v>1789.070209466294</v>
@@ -6406,28 +6406,28 @@
         <v>1858.375609855856</v>
       </c>
       <c r="R28" t="n">
-        <v>1858.375609855856</v>
+        <v>1763.995155444828</v>
       </c>
       <c r="S28" t="n">
-        <v>1664.926210807607</v>
+        <v>1570.545756396579</v>
       </c>
       <c r="T28" t="n">
-        <v>1664.926210807607</v>
+        <v>1348.346771643578</v>
       </c>
       <c r="U28" t="n">
-        <v>1375.817824324878</v>
+        <v>1059.238385160849</v>
       </c>
       <c r="V28" t="n">
-        <v>1240.099198531032</v>
+        <v>804.5538969549619</v>
       </c>
       <c r="W28" t="n">
-        <v>950.6820284940717</v>
+        <v>515.1367269180014</v>
       </c>
       <c r="X28" t="n">
-        <v>950.6820284940717</v>
+        <v>316.7082937614907</v>
       </c>
       <c r="Y28" t="n">
-        <v>729.8894493505416</v>
+        <v>95.91571461796062</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2385.804110202369</v>
+        <v>2385.80411020237</v>
       </c>
       <c r="C29" t="n">
         <v>2016.841593261958</v>
       </c>
       <c r="D29" t="n">
-        <v>1658.575894655207</v>
+        <v>1658.575894655208</v>
       </c>
       <c r="E29" t="n">
         <v>1272.787642056963</v>
@@ -6455,58 +6455,58 @@
         <v>446.503695078359</v>
       </c>
       <c r="H29" t="n">
-        <v>146.6097502689979</v>
+        <v>146.609750268998</v>
       </c>
       <c r="I29" t="n">
-        <v>95.91571461796093</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="J29" t="n">
-        <v>305.2085531803679</v>
+        <v>266.029025835606</v>
       </c>
       <c r="K29" t="n">
-        <v>610.902827614819</v>
+        <v>892.6272587155102</v>
       </c>
       <c r="L29" t="n">
-        <v>1440.529970650457</v>
+        <v>1356.77580696529</v>
       </c>
       <c r="M29" t="n">
-        <v>2380.256564787508</v>
+        <v>1851.484002944437</v>
       </c>
       <c r="N29" t="n">
-        <v>3320.55692012579</v>
+        <v>2791.784358282719</v>
       </c>
       <c r="O29" t="n">
-        <v>4163.268244062214</v>
+        <v>3634.495682219143</v>
       </c>
       <c r="P29" t="n">
-        <v>4526.247758229108</v>
+        <v>4316.055917475804</v>
       </c>
       <c r="Q29" t="n">
         <v>4750.657510118996</v>
       </c>
       <c r="R29" t="n">
-        <v>4795.785730898046</v>
+        <v>4795.785730898047</v>
       </c>
       <c r="S29" t="n">
-        <v>4680.354383950532</v>
+        <v>4680.354383950533</v>
       </c>
       <c r="T29" t="n">
-        <v>4473.38910720595</v>
+        <v>4473.389107205951</v>
       </c>
       <c r="U29" t="n">
         <v>4219.840583117068</v>
       </c>
       <c r="V29" t="n">
-        <v>3888.777695773497</v>
+        <v>3888.777695773498</v>
       </c>
       <c r="W29" t="n">
-        <v>3536.009040503382</v>
+        <v>3536.009040503383</v>
       </c>
       <c r="X29" t="n">
-        <v>3162.543282242303</v>
+        <v>3162.543282242304</v>
       </c>
       <c r="Y29" t="n">
-        <v>2772.403950266491</v>
+        <v>2772.403950266492</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>966.1616202414747</v>
+        <v>966.1616202414749</v>
       </c>
       <c r="C30" t="n">
-        <v>791.7085909603477</v>
+        <v>791.7085909603479</v>
       </c>
       <c r="D30" t="n">
-        <v>642.7741812990964</v>
+        <v>642.7741812990967</v>
       </c>
       <c r="E30" t="n">
-        <v>483.536726293641</v>
+        <v>483.5367262936411</v>
       </c>
       <c r="F30" t="n">
         <v>337.002168320526</v>
@@ -6534,40 +6534,40 @@
         <v>200.5183657738243</v>
       </c>
       <c r="H30" t="n">
-        <v>108.8507405377347</v>
+        <v>108.8507405377348</v>
       </c>
       <c r="I30" t="n">
-        <v>95.91571461796093</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="J30" t="n">
-        <v>178.4161904293474</v>
+        <v>178.4161904293475</v>
       </c>
       <c r="K30" t="n">
-        <v>397.5774687983841</v>
+        <v>540.3501036575221</v>
       </c>
       <c r="L30" t="n">
-        <v>738.5893949023163</v>
+        <v>881.3620297614543</v>
       </c>
       <c r="M30" t="n">
-        <v>1155.891096344438</v>
+        <v>1298.663731203576</v>
       </c>
       <c r="N30" t="n">
-        <v>1598.646177019513</v>
+        <v>1741.418811878651</v>
       </c>
       <c r="O30" t="n">
-        <v>1981.460781412396</v>
+        <v>2124.233416271534</v>
       </c>
       <c r="P30" t="n">
-        <v>2449.722789773297</v>
+        <v>2412.142819585232</v>
       </c>
       <c r="Q30" t="n">
-        <v>2592.263404880538</v>
+        <v>2554.683434692473</v>
       </c>
       <c r="R30" t="n">
         <v>2592.263404880538</v>
       </c>
       <c r="S30" t="n">
-        <v>2460.583524617793</v>
+        <v>2460.583524617794</v>
       </c>
       <c r="T30" t="n">
         <v>2267.454009003566</v>
@@ -6579,7 +6579,7 @@
         <v>1804.226112960231</v>
       </c>
       <c r="W30" t="n">
-        <v>1549.988756232029</v>
+        <v>1549.98875623203</v>
       </c>
       <c r="X30" t="n">
         <v>1342.137256026497</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.91571461796093</v>
+        <v>549.0286359803586</v>
       </c>
       <c r="C31" t="n">
-        <v>95.91571461796093</v>
+        <v>380.0924530524517</v>
       </c>
       <c r="D31" t="n">
-        <v>95.91571461796086</v>
+        <v>229.9758136401159</v>
       </c>
       <c r="E31" t="n">
-        <v>95.91571461796086</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="F31" t="n">
-        <v>95.91571461796086</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="G31" t="n">
-        <v>95.91571461796086</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="H31" t="n">
-        <v>95.91571461796086</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="I31" t="n">
-        <v>95.91571461796086</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="J31" t="n">
-        <v>134.0263858936354</v>
+        <v>134.0263858936355</v>
       </c>
       <c r="K31" t="n">
-        <v>326.4907626487719</v>
+        <v>326.490762648772</v>
       </c>
       <c r="L31" t="n">
         <v>628.3053363326028</v>
@@ -6634,37 +6634,37 @@
         <v>1283.146881966821</v>
       </c>
       <c r="O31" t="n">
-        <v>1568.457968312878</v>
+        <v>1568.457968312879</v>
       </c>
       <c r="P31" t="n">
         <v>1789.070209466294</v>
       </c>
       <c r="Q31" t="n">
-        <v>1858.375609855855</v>
+        <v>1858.375609855856</v>
       </c>
       <c r="R31" t="n">
-        <v>1858.375609855855</v>
+        <v>1763.995155444828</v>
       </c>
       <c r="S31" t="n">
-        <v>1664.926210807607</v>
+        <v>1570.545756396579</v>
       </c>
       <c r="T31" t="n">
-        <v>1442.727226054605</v>
+        <v>1348.346771643578</v>
       </c>
       <c r="U31" t="n">
-        <v>1153.618839571876</v>
+        <v>1059.238385160849</v>
       </c>
       <c r="V31" t="n">
-        <v>898.9343513659893</v>
+        <v>1059.238385160849</v>
       </c>
       <c r="W31" t="n">
-        <v>609.5171813290289</v>
+        <v>769.8212151238886</v>
       </c>
       <c r="X31" t="n">
-        <v>381.5276304310115</v>
+        <v>769.8212151238886</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.5641794482007</v>
+        <v>549.0286359803586</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2385.804110202369</v>
+        <v>2385.80411020237</v>
       </c>
       <c r="C32" t="n">
-        <v>2016.841593261957</v>
+        <v>2016.841593261958</v>
       </c>
       <c r="D32" t="n">
         <v>1658.575894655207</v>
@@ -6686,64 +6686,64 @@
         <v>1272.787642056963</v>
       </c>
       <c r="F32" t="n">
-        <v>861.8017372673551</v>
+        <v>861.8017372673553</v>
       </c>
       <c r="G32" t="n">
         <v>446.503695078359</v>
       </c>
       <c r="H32" t="n">
-        <v>146.6097502689979</v>
+        <v>146.609750268998</v>
       </c>
       <c r="I32" t="n">
-        <v>95.91571461796093</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="J32" t="n">
-        <v>266.029025835606</v>
+        <v>433.434674855959</v>
       </c>
       <c r="K32" t="n">
-        <v>571.7233002700571</v>
+        <v>1060.032907735863</v>
       </c>
       <c r="L32" t="n">
-        <v>1401.350443305696</v>
+        <v>1889.660050771502</v>
       </c>
       <c r="M32" t="n">
-        <v>2341.077037442746</v>
+        <v>2384.368246750648</v>
       </c>
       <c r="N32" t="n">
-        <v>3281.377392781028</v>
+        <v>3255.497664451539</v>
       </c>
       <c r="O32" t="n">
-        <v>4124.088716717451</v>
+        <v>4098.208988387963</v>
       </c>
       <c r="P32" t="n">
-        <v>4526.247758229108</v>
+        <v>4461.188502554856</v>
       </c>
       <c r="Q32" t="n">
-        <v>4750.657510118996</v>
+        <v>4685.598254444744</v>
       </c>
       <c r="R32" t="n">
-        <v>4795.785730898046</v>
+        <v>4795.785730898047</v>
       </c>
       <c r="S32" t="n">
-        <v>4680.354383950532</v>
+        <v>4680.354383950533</v>
       </c>
       <c r="T32" t="n">
-        <v>4473.38910720595</v>
+        <v>4473.389107205951</v>
       </c>
       <c r="U32" t="n">
         <v>4219.840583117068</v>
       </c>
       <c r="V32" t="n">
-        <v>3888.777695773497</v>
+        <v>3888.777695773498</v>
       </c>
       <c r="W32" t="n">
-        <v>3536.009040503382</v>
+        <v>3536.009040503383</v>
       </c>
       <c r="X32" t="n">
-        <v>3162.543282242303</v>
+        <v>3162.543282242304</v>
       </c>
       <c r="Y32" t="n">
-        <v>2772.403950266491</v>
+        <v>2772.403950266492</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>966.1616202414747</v>
+        <v>966.1616202414749</v>
       </c>
       <c r="C33" t="n">
-        <v>791.7085909603477</v>
+        <v>791.7085909603479</v>
       </c>
       <c r="D33" t="n">
-        <v>642.7741812990964</v>
+        <v>642.7741812990967</v>
       </c>
       <c r="E33" t="n">
-        <v>483.536726293641</v>
+        <v>483.5367262936411</v>
       </c>
       <c r="F33" t="n">
         <v>337.002168320526</v>
@@ -6771,13 +6771,13 @@
         <v>200.5183657738243</v>
       </c>
       <c r="H33" t="n">
-        <v>108.8507405377347</v>
+        <v>108.8507405377348</v>
       </c>
       <c r="I33" t="n">
-        <v>95.91571461796093</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="J33" t="n">
-        <v>178.4161904293474</v>
+        <v>178.4161904293475</v>
       </c>
       <c r="K33" t="n">
         <v>397.5774687983841</v>
@@ -6795,16 +6795,16 @@
         <v>1981.460781412396</v>
       </c>
       <c r="P33" t="n">
-        <v>2449.722789773297</v>
+        <v>2412.142819585232</v>
       </c>
       <c r="Q33" t="n">
-        <v>2592.263404880538</v>
+        <v>2554.683434692473</v>
       </c>
       <c r="R33" t="n">
         <v>2592.263404880538</v>
       </c>
       <c r="S33" t="n">
-        <v>2460.583524617793</v>
+        <v>2460.583524617794</v>
       </c>
       <c r="T33" t="n">
         <v>2267.454009003566</v>
@@ -6816,7 +6816,7 @@
         <v>1804.226112960231</v>
       </c>
       <c r="W33" t="n">
-        <v>1549.988756232029</v>
+        <v>1549.98875623203</v>
       </c>
       <c r="X33" t="n">
         <v>1342.137256026497</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.91571461796093</v>
+        <v>414.9685369582036</v>
       </c>
       <c r="C34" t="n">
-        <v>95.91571461796093</v>
+        <v>246.0323540302967</v>
       </c>
       <c r="D34" t="n">
-        <v>95.91571461796093</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="E34" t="n">
-        <v>95.91571461796093</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="F34" t="n">
-        <v>95.91571461796093</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="G34" t="n">
-        <v>95.91571461796093</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="H34" t="n">
-        <v>95.91571461796093</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="I34" t="n">
-        <v>95.91571461796093</v>
+        <v>95.91571461796094</v>
       </c>
       <c r="J34" t="n">
         <v>134.0263858936355</v>
@@ -6862,10 +6862,10 @@
         <v>326.490762648772</v>
       </c>
       <c r="L34" t="n">
-        <v>628.3053363326027</v>
+        <v>628.3053363326026</v>
       </c>
       <c r="M34" t="n">
-        <v>956.9156098508796</v>
+        <v>956.9156098508795</v>
       </c>
       <c r="N34" t="n">
         <v>1283.146881966821</v>
@@ -6877,31 +6877,31 @@
         <v>1789.070209466294</v>
       </c>
       <c r="Q34" t="n">
-        <v>1858.375609855856</v>
+        <v>1858.375609855855</v>
       </c>
       <c r="R34" t="n">
-        <v>1858.375609855856</v>
+        <v>1858.375609855855</v>
       </c>
       <c r="S34" t="n">
-        <v>1664.926210807607</v>
+        <v>1858.375609855855</v>
       </c>
       <c r="T34" t="n">
-        <v>1442.727226054606</v>
+        <v>1636.176625102854</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.447967732596</v>
+        <v>1347.068238620125</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.763479526709</v>
+        <v>1092.383750414238</v>
       </c>
       <c r="W34" t="n">
-        <v>726.3463094897481</v>
+        <v>863.750666999751</v>
       </c>
       <c r="X34" t="n">
-        <v>498.3567585917308</v>
+        <v>635.7611161017337</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.5641794482007</v>
+        <v>414.9685369582036</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2007.05131394178</v>
+        <v>2007.051313941781</v>
       </c>
       <c r="C35" t="n">
-        <v>1690.115372437138</v>
+        <v>1690.115372437139</v>
       </c>
       <c r="D35" t="n">
-        <v>1383.876249266157</v>
+        <v>1383.876249266158</v>
       </c>
       <c r="E35" t="n">
-        <v>1050.114572103683</v>
+        <v>1050.114572103684</v>
       </c>
       <c r="F35" t="n">
-        <v>691.1552427498445</v>
+        <v>691.1552427498457</v>
       </c>
       <c r="G35" t="n">
         <v>327.8837759966176</v>
       </c>
       <c r="H35" t="n">
-        <v>80.016406623026</v>
+        <v>80.01640662302603</v>
       </c>
       <c r="I35" t="n">
-        <v>80.016406623026</v>
+        <v>80.01640662302603</v>
       </c>
       <c r="J35" t="n">
-        <v>417.5353668610241</v>
+        <v>417.5353668610242</v>
       </c>
       <c r="K35" t="n">
-        <v>890.5742455315799</v>
+        <v>723.2296412954752</v>
       </c>
       <c r="L35" t="n">
-        <v>1306.716786162272</v>
+        <v>1139.372181926168</v>
       </c>
       <c r="M35" t="n">
-        <v>1801.424982141419</v>
+        <v>2079.098776063218</v>
       </c>
       <c r="N35" t="n">
-        <v>2308.751882311837</v>
+        <v>2586.425676233636</v>
       </c>
       <c r="O35" t="n">
-        <v>2774.471026798143</v>
+        <v>3052.144820719942</v>
       </c>
       <c r="P35" t="n">
-        <v>3456.031262054804</v>
+        <v>3456.031262054805</v>
       </c>
       <c r="Q35" t="n">
-        <v>3890.632854697997</v>
+        <v>3890.632854697998</v>
       </c>
       <c r="R35" t="n">
-        <v>4000.8203311513</v>
+        <v>4000.820331151301</v>
       </c>
       <c r="S35" t="n">
-        <v>3937.415559639555</v>
+        <v>3937.415559639557</v>
       </c>
       <c r="T35" t="n">
-        <v>3782.476858330744</v>
+        <v>3782.476858330745</v>
       </c>
       <c r="U35" t="n">
-        <v>3580.95490967763</v>
+        <v>3580.954909677631</v>
       </c>
       <c r="V35" t="n">
-        <v>3301.918597769829</v>
+        <v>3301.91859776983</v>
       </c>
       <c r="W35" t="n">
-        <v>3001.176517935485</v>
+        <v>3001.176517935486</v>
       </c>
       <c r="X35" t="n">
-        <v>2679.737335110175</v>
+        <v>2679.737335110176</v>
       </c>
       <c r="Y35" t="n">
-        <v>2341.624578570133</v>
+        <v>2341.624578570134</v>
       </c>
     </row>
     <row r="36">
@@ -6999,28 +6999,28 @@
         <v>626.8748733041616</v>
       </c>
       <c r="E36" t="n">
-        <v>467.6374182987061</v>
+        <v>467.6374182987062</v>
       </c>
       <c r="F36" t="n">
         <v>321.1028603255911</v>
       </c>
       <c r="G36" t="n">
-        <v>184.6190577788893</v>
+        <v>184.6190577788894</v>
       </c>
       <c r="H36" t="n">
-        <v>92.95143254279981</v>
+        <v>92.95143254279984</v>
       </c>
       <c r="I36" t="n">
-        <v>80.016406623026</v>
+        <v>80.01640662302603</v>
       </c>
       <c r="J36" t="n">
-        <v>287.3470074214173</v>
+        <v>162.5168824344125</v>
       </c>
       <c r="K36" t="n">
-        <v>562.0307658506526</v>
+        <v>381.6781608034491</v>
       </c>
       <c r="L36" t="n">
-        <v>903.0426919545848</v>
+        <v>722.6900869073813</v>
       </c>
       <c r="M36" t="n">
         <v>1320.344393396706</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>744.9759756499881</v>
+        <v>744.9759756499883</v>
       </c>
       <c r="C37" t="n">
-        <v>628.0663681578508</v>
+        <v>628.066368157851</v>
       </c>
       <c r="D37" t="n">
-        <v>529.9763041812847</v>
+        <v>529.9763041812848</v>
       </c>
       <c r="E37" t="n">
-        <v>434.0897860346612</v>
+        <v>434.0897860346613</v>
       </c>
       <c r="F37" t="n">
         <v>339.2264139725205</v>
@@ -7087,19 +7087,19 @@
         <v>223.448959962843</v>
       </c>
       <c r="H37" t="n">
-        <v>128.3586524517217</v>
+        <v>128.3586524517218</v>
       </c>
       <c r="I37" t="n">
-        <v>80.016406623026</v>
+        <v>80.01640662302603</v>
       </c>
       <c r="J37" t="n">
-        <v>169.1183244832983</v>
+        <v>169.1183244832984</v>
       </c>
       <c r="K37" t="n">
         <v>412.5739478230326</v>
       </c>
       <c r="L37" t="n">
-        <v>765.3797680914611</v>
+        <v>765.379768091461</v>
       </c>
       <c r="M37" t="n">
         <v>1144.981288194336</v>
@@ -7126,7 +7126,7 @@
         <v>1896.457162632734</v>
       </c>
       <c r="U37" t="n">
-        <v>1659.375351585775</v>
+        <v>1659.375351585774</v>
       </c>
       <c r="V37" t="n">
         <v>1456.717438815657</v>
@@ -7138,7 +7138,7 @@
         <v>1043.363868752219</v>
       </c>
       <c r="Y37" t="n">
-        <v>874.5978650444582</v>
+        <v>874.5978650444584</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2007.051313941778</v>
+        <v>2007.051313941781</v>
       </c>
       <c r="C38" t="n">
-        <v>1690.115372437136</v>
+        <v>1690.115372437139</v>
       </c>
       <c r="D38" t="n">
-        <v>1383.876249266155</v>
+        <v>1383.876249266158</v>
       </c>
       <c r="E38" t="n">
-        <v>1050.114572103681</v>
+        <v>1050.114572103683</v>
       </c>
       <c r="F38" t="n">
-        <v>691.1552427498432</v>
+        <v>691.1552427498455</v>
       </c>
       <c r="G38" t="n">
-        <v>327.8837759966176</v>
+        <v>327.8837759966175</v>
       </c>
       <c r="H38" t="n">
         <v>80.016406623026</v>
@@ -7172,52 +7172,52 @@
         <v>80.016406623026</v>
       </c>
       <c r="J38" t="n">
-        <v>417.5353668610241</v>
+        <v>250.129717840671</v>
       </c>
       <c r="K38" t="n">
-        <v>723.2296412954752</v>
+        <v>555.8239922751221</v>
       </c>
       <c r="L38" t="n">
-        <v>1139.372181926168</v>
+        <v>971.9665329058148</v>
       </c>
       <c r="M38" t="n">
-        <v>1634.080377905314</v>
+        <v>1466.674728884961</v>
       </c>
       <c r="N38" t="n">
-        <v>2141.407278075732</v>
+        <v>2406.975084223243</v>
       </c>
       <c r="O38" t="n">
-        <v>2774.471026798142</v>
+        <v>3249.686408159667</v>
       </c>
       <c r="P38" t="n">
-        <v>3456.031262054803</v>
+        <v>3612.665922326561</v>
       </c>
       <c r="Q38" t="n">
-        <v>3890.632854697997</v>
+        <v>3955.69211037225</v>
       </c>
       <c r="R38" t="n">
         <v>4000.8203311513</v>
       </c>
       <c r="S38" t="n">
-        <v>3937.415559639554</v>
+        <v>3937.415559639556</v>
       </c>
       <c r="T38" t="n">
-        <v>3782.476858330742</v>
+        <v>3782.476858330744</v>
       </c>
       <c r="U38" t="n">
-        <v>3580.954909677629</v>
+        <v>3580.954909677631</v>
       </c>
       <c r="V38" t="n">
-        <v>3301.918597769827</v>
+        <v>3301.91859776983</v>
       </c>
       <c r="W38" t="n">
-        <v>3001.176517935482</v>
+        <v>3001.176517935485</v>
       </c>
       <c r="X38" t="n">
-        <v>2679.737335110172</v>
+        <v>2679.737335110175</v>
       </c>
       <c r="Y38" t="n">
-        <v>2341.62457857013</v>
+        <v>2341.624578570133</v>
       </c>
     </row>
     <row r="39">
@@ -7266,7 +7266,7 @@
         <v>1582.746869024578</v>
       </c>
       <c r="O39" t="n">
-        <v>1965.561473417461</v>
+        <v>2145.914078464664</v>
       </c>
       <c r="P39" t="n">
         <v>2433.823481778363</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>744.9759756499881</v>
+        <v>744.9759756499882</v>
       </c>
       <c r="C40" t="n">
-        <v>628.0663681578508</v>
+        <v>628.0663681578509</v>
       </c>
       <c r="D40" t="n">
-        <v>529.9763041812846</v>
+        <v>529.9763041812848</v>
       </c>
       <c r="E40" t="n">
-        <v>434.0897860346611</v>
+        <v>434.0897860346614</v>
       </c>
       <c r="F40" t="n">
-        <v>339.2264139725203</v>
+        <v>339.2264139725206</v>
       </c>
       <c r="G40" t="n">
-        <v>223.4489599628429</v>
+        <v>223.4489599628432</v>
       </c>
       <c r="H40" t="n">
         <v>128.3586524517217</v>
@@ -7330,7 +7330,7 @@
         <v>80.016406623026</v>
       </c>
       <c r="J40" t="n">
-        <v>169.1183244832983</v>
+        <v>169.1183244832984</v>
       </c>
       <c r="K40" t="n">
         <v>412.5739478230325</v>
@@ -7348,7 +7348,7 @@
         <v>1858.50613982553</v>
       </c>
       <c r="P40" t="n">
-        <v>2130.109627563543</v>
+        <v>2130.109627563544</v>
       </c>
       <c r="Q40" t="n">
         <v>2250.406274537703</v>
@@ -7363,13 +7363,13 @@
         <v>1896.457162632734</v>
       </c>
       <c r="U40" t="n">
-        <v>1659.375351585774</v>
+        <v>1659.375351585775</v>
       </c>
       <c r="V40" t="n">
         <v>1456.717438815657</v>
       </c>
       <c r="W40" t="n">
-        <v>1219.326844214466</v>
+        <v>1219.326844214467</v>
       </c>
       <c r="X40" t="n">
         <v>1043.363868752219</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2007.05131394178</v>
+        <v>2007.051313941781</v>
       </c>
       <c r="C41" t="n">
-        <v>1690.115372437138</v>
+        <v>1690.115372437139</v>
       </c>
       <c r="D41" t="n">
-        <v>1383.876249266157</v>
+        <v>1383.876249266158</v>
       </c>
       <c r="E41" t="n">
-        <v>1050.114572103682</v>
+        <v>1050.114572103683</v>
       </c>
       <c r="F41" t="n">
-        <v>691.1552427498441</v>
+        <v>691.1552427498452</v>
       </c>
       <c r="G41" t="n">
         <v>327.8837759966176</v>
       </c>
       <c r="H41" t="n">
-        <v>80.016406623026</v>
+        <v>80.01640662302603</v>
       </c>
       <c r="I41" t="n">
-        <v>80.016406623026</v>
+        <v>80.01640662302603</v>
       </c>
       <c r="J41" t="n">
-        <v>417.5353668610241</v>
+        <v>417.5353668610242</v>
       </c>
       <c r="K41" t="n">
         <v>723.2296412954752</v>
       </c>
       <c r="L41" t="n">
-        <v>1139.372181926168</v>
+        <v>1552.856784331114</v>
       </c>
       <c r="M41" t="n">
-        <v>1634.080377905314</v>
+        <v>2047.56498031026</v>
       </c>
       <c r="N41" t="n">
-        <v>2574.380733243596</v>
+        <v>2554.891880480678</v>
       </c>
       <c r="O41" t="n">
-        <v>3040.099877729902</v>
+        <v>3020.611024966984</v>
       </c>
       <c r="P41" t="n">
-        <v>3456.031262054803</v>
+        <v>3456.031262054805</v>
       </c>
       <c r="Q41" t="n">
-        <v>3890.632854697997</v>
+        <v>3890.632854697998</v>
       </c>
       <c r="R41" t="n">
-        <v>4000.8203311513</v>
+        <v>4000.820331151301</v>
       </c>
       <c r="S41" t="n">
-        <v>3937.415559639554</v>
+        <v>3937.415559639556</v>
       </c>
       <c r="T41" t="n">
-        <v>3782.476858330743</v>
+        <v>3782.476858330744</v>
       </c>
       <c r="U41" t="n">
-        <v>3580.95490967763</v>
+        <v>3580.954909677631</v>
       </c>
       <c r="V41" t="n">
-        <v>3301.918597769829</v>
+        <v>3301.91859776983</v>
       </c>
       <c r="W41" t="n">
-        <v>3001.176517935484</v>
+        <v>3001.176517935485</v>
       </c>
       <c r="X41" t="n">
-        <v>2679.737335110174</v>
+        <v>2679.737335110175</v>
       </c>
       <c r="Y41" t="n">
-        <v>2341.624578570132</v>
+        <v>2341.624578570133</v>
       </c>
     </row>
     <row r="42">
@@ -7473,37 +7473,37 @@
         <v>626.8748733041616</v>
       </c>
       <c r="E42" t="n">
-        <v>467.6374182987061</v>
+        <v>467.6374182987062</v>
       </c>
       <c r="F42" t="n">
         <v>321.1028603255911</v>
       </c>
       <c r="G42" t="n">
-        <v>184.6190577788893</v>
+        <v>184.6190577788894</v>
       </c>
       <c r="H42" t="n">
-        <v>92.95143254279981</v>
+        <v>92.95143254279984</v>
       </c>
       <c r="I42" t="n">
-        <v>80.016406623026</v>
+        <v>80.01640662302603</v>
       </c>
       <c r="J42" t="n">
-        <v>287.3470074214173</v>
+        <v>162.5168824344125</v>
       </c>
       <c r="K42" t="n">
-        <v>562.0307658506526</v>
+        <v>381.6781608034491</v>
       </c>
       <c r="L42" t="n">
-        <v>903.0426919545848</v>
+        <v>722.6900869073813</v>
       </c>
       <c r="M42" t="n">
-        <v>1320.344393396706</v>
+        <v>1139.991788349503</v>
       </c>
       <c r="N42" t="n">
-        <v>1763.099474071782</v>
+        <v>1582.746869024578</v>
       </c>
       <c r="O42" t="n">
-        <v>2145.914078464664</v>
+        <v>1965.561473417461</v>
       </c>
       <c r="P42" t="n">
         <v>2433.823481778363</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>744.9759756499874</v>
+        <v>744.9759756499888</v>
       </c>
       <c r="C43" t="n">
-        <v>628.0663681578501</v>
+        <v>628.0663681578515</v>
       </c>
       <c r="D43" t="n">
-        <v>529.9763041812839</v>
+        <v>529.9763041812853</v>
       </c>
       <c r="E43" t="n">
-        <v>434.0897860346604</v>
+        <v>434.0897860346618</v>
       </c>
       <c r="F43" t="n">
-        <v>339.2264139725198</v>
+        <v>339.2264139725206</v>
       </c>
       <c r="G43" t="n">
-        <v>223.4489599628423</v>
+        <v>223.4489599628431</v>
       </c>
       <c r="H43" t="n">
-        <v>128.3586524517217</v>
+        <v>128.3586524517218</v>
       </c>
       <c r="I43" t="n">
-        <v>80.016406623026</v>
+        <v>80.01640662302603</v>
       </c>
       <c r="J43" t="n">
-        <v>169.1183244832984</v>
+        <v>169.1183244832982</v>
       </c>
       <c r="K43" t="n">
-        <v>412.5739478230327</v>
+        <v>412.5739478230325</v>
       </c>
       <c r="L43" t="n">
-        <v>765.3797680914608</v>
+        <v>765.3797680914612</v>
       </c>
       <c r="M43" t="n">
         <v>1144.981288194336</v>
@@ -7582,37 +7582,37 @@
         <v>1522.203806894875</v>
       </c>
       <c r="O43" t="n">
-        <v>1858.506139825529</v>
+        <v>1858.50613982553</v>
       </c>
       <c r="P43" t="n">
         <v>2130.109627563543</v>
       </c>
       <c r="Q43" t="n">
-        <v>2250.406274537702</v>
+        <v>2250.406274537703</v>
       </c>
       <c r="R43" t="n">
-        <v>2208.052395562444</v>
+        <v>2208.052395562445</v>
       </c>
       <c r="S43" t="n">
-        <v>2066.629571949965</v>
+        <v>2066.629571949966</v>
       </c>
       <c r="T43" t="n">
-        <v>1896.457162632733</v>
+        <v>1896.457162632735</v>
       </c>
       <c r="U43" t="n">
-        <v>1659.375351585774</v>
+        <v>1659.375351585775</v>
       </c>
       <c r="V43" t="n">
-        <v>1456.717438815657</v>
+        <v>1456.717438815658</v>
       </c>
       <c r="W43" t="n">
-        <v>1219.326844214466</v>
+        <v>1219.326844214467</v>
       </c>
       <c r="X43" t="n">
-        <v>1043.363868752218</v>
+        <v>1043.363868752219</v>
       </c>
       <c r="Y43" t="n">
-        <v>874.5978650444574</v>
+        <v>874.5978650444588</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2007.05131394178</v>
+        <v>2007.051313941781</v>
       </c>
       <c r="C44" t="n">
-        <v>1690.115372437138</v>
+        <v>1690.115372437139</v>
       </c>
       <c r="D44" t="n">
-        <v>1383.876249266157</v>
+        <v>1383.876249266158</v>
       </c>
       <c r="E44" t="n">
-        <v>1050.114572103682</v>
+        <v>1050.114572103683</v>
       </c>
       <c r="F44" t="n">
-        <v>691.1552427498441</v>
+        <v>691.155242749845</v>
       </c>
       <c r="G44" t="n">
-        <v>327.8837759966176</v>
+        <v>327.8837759966186</v>
       </c>
       <c r="H44" t="n">
-        <v>80.016406623026</v>
+        <v>80.01640662302603</v>
       </c>
       <c r="I44" t="n">
-        <v>80.016406623026</v>
+        <v>80.01640662302603</v>
       </c>
       <c r="J44" t="n">
-        <v>417.5353668610241</v>
+        <v>250.1297178406711</v>
       </c>
       <c r="K44" t="n">
-        <v>723.2296412954752</v>
+        <v>555.8239922751221</v>
       </c>
       <c r="L44" t="n">
-        <v>1139.372181926168</v>
+        <v>1371.776041836526</v>
       </c>
       <c r="M44" t="n">
-        <v>1634.080377905314</v>
+        <v>1866.484237815673</v>
       </c>
       <c r="N44" t="n">
-        <v>2141.407278075732</v>
+        <v>2373.81113798609</v>
       </c>
       <c r="O44" t="n">
-        <v>2774.471026798142</v>
+        <v>2839.530282472396</v>
       </c>
       <c r="P44" t="n">
-        <v>3456.031262054803</v>
+        <v>3521.090517729057</v>
       </c>
       <c r="Q44" t="n">
-        <v>3890.632854697997</v>
+        <v>3955.692110372251</v>
       </c>
       <c r="R44" t="n">
-        <v>4000.8203311513</v>
+        <v>4000.820331151301</v>
       </c>
       <c r="S44" t="n">
-        <v>3937.415559639555</v>
+        <v>3937.415559639556</v>
       </c>
       <c r="T44" t="n">
-        <v>3782.476858330743</v>
+        <v>3782.476858330744</v>
       </c>
       <c r="U44" t="n">
-        <v>3580.95490967763</v>
+        <v>3580.954909677631</v>
       </c>
       <c r="V44" t="n">
-        <v>3301.918597769828</v>
+        <v>3301.91859776983</v>
       </c>
       <c r="W44" t="n">
-        <v>3001.176517935484</v>
+        <v>3001.176517935485</v>
       </c>
       <c r="X44" t="n">
-        <v>2679.737335110174</v>
+        <v>2679.737335110175</v>
       </c>
       <c r="Y44" t="n">
-        <v>2341.624578570132</v>
+        <v>2341.624578570133</v>
       </c>
     </row>
     <row r="45">
@@ -7710,28 +7710,28 @@
         <v>626.8748733041616</v>
       </c>
       <c r="E45" t="n">
-        <v>467.6374182987061</v>
+        <v>467.6374182987062</v>
       </c>
       <c r="F45" t="n">
         <v>321.1028603255911</v>
       </c>
       <c r="G45" t="n">
-        <v>184.6190577788893</v>
+        <v>184.6190577788894</v>
       </c>
       <c r="H45" t="n">
-        <v>92.95143254279981</v>
+        <v>92.95143254279984</v>
       </c>
       <c r="I45" t="n">
-        <v>80.016406623026</v>
+        <v>80.01640662302603</v>
       </c>
       <c r="J45" t="n">
         <v>162.5168824344125</v>
       </c>
       <c r="K45" t="n">
-        <v>562.0307658506526</v>
+        <v>381.6781608034491</v>
       </c>
       <c r="L45" t="n">
-        <v>903.0426919545848</v>
+        <v>722.6900869073813</v>
       </c>
       <c r="M45" t="n">
         <v>1320.344393396706</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>744.9759756499878</v>
+        <v>744.9759756499886</v>
       </c>
       <c r="C46" t="n">
-        <v>628.0663681578505</v>
+        <v>628.0663681578513</v>
       </c>
       <c r="D46" t="n">
-        <v>529.9763041812845</v>
+        <v>529.9763041812852</v>
       </c>
       <c r="E46" t="n">
-        <v>434.089786034661</v>
+        <v>434.0897860346616</v>
       </c>
       <c r="F46" t="n">
-        <v>339.2264139725204</v>
+        <v>339.2264139725208</v>
       </c>
       <c r="G46" t="n">
-        <v>223.448959962843</v>
+        <v>223.4489599628434</v>
       </c>
       <c r="H46" t="n">
         <v>128.3586524517217</v>
       </c>
       <c r="I46" t="n">
-        <v>80.016406623026</v>
+        <v>80.01640662302603</v>
       </c>
       <c r="J46" t="n">
-        <v>169.1183244832983</v>
+        <v>169.1183244832985</v>
       </c>
       <c r="K46" t="n">
-        <v>412.5739478230325</v>
+        <v>412.5739478230328</v>
       </c>
       <c r="L46" t="n">
-        <v>765.3797680914612</v>
+        <v>765.3797680914614</v>
       </c>
       <c r="M46" t="n">
         <v>1144.981288194336</v>
@@ -7822,7 +7822,7 @@
         <v>1858.50613982553</v>
       </c>
       <c r="P46" t="n">
-        <v>2130.109627563544</v>
+        <v>2130.109627563543</v>
       </c>
       <c r="Q46" t="n">
         <v>2250.406274537703</v>
@@ -7837,19 +7837,19 @@
         <v>1896.457162632734</v>
       </c>
       <c r="U46" t="n">
-        <v>1659.375351585775</v>
+        <v>1659.375351585774</v>
       </c>
       <c r="V46" t="n">
-        <v>1456.717438815658</v>
+        <v>1456.717438815657</v>
       </c>
       <c r="W46" t="n">
-        <v>1219.326844214467</v>
+        <v>1219.326844214466</v>
       </c>
       <c r="X46" t="n">
         <v>1043.363868752219</v>
       </c>
       <c r="Y46" t="n">
-        <v>874.597865044458</v>
+        <v>874.5978650444588</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7985,16 @@
         <v>273.750943367713</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L3" t="n">
         <v>178.1382567417148</v>
       </c>
       <c r="M3" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8076,7 +8076,7 @@
         <v>173.5582843761708</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,10 +8219,10 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L5" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
@@ -8231,7 +8231,7 @@
         <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>269.2175241529953</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8304,13 +8304,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>182.180121406285</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q6" t="n">
         <v>179.5656510478621</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>258.0743794427063</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>269.9301101891133</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>178.1382567417148</v>
@@ -8541,7 +8541,7 @@
         <v>181.7179108838589</v>
       </c>
       <c r="N9" t="n">
-        <v>169.3262404810591</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8550,7 +8550,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>177.9663024837473</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,28 +8690,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>233.5495093190477</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>233.2954692360394</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>18.12374734558864</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.08331319211925</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.562103964789799</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,25 +8927,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>51.38060516513264</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>352.0946579166547</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>56.08331319211965</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>182.1743485325284</v>
       </c>
       <c r="R15" t="n">
         <v>7.562103964789799</v>
@@ -9170,16 +9170,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>196.4344359483341</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>80.88621970782879</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>56.0833131921197</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>182.1743485325284</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>7.562103964789799</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9410,19 +9410,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>361.2643346403978</v>
       </c>
       <c r="P20" t="n">
-        <v>137.4329628570713</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>56.08331319211965</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>182.1743485325285</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9641,19 +9641,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>251.0248061538835</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>86.44894754482885</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>56.08331319211959</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>182.1743485325283</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>195.0894875738788</v>
       </c>
       <c r="N26" t="n">
-        <v>125.6566852322178</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>56.08331319212004</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>144.214782685998</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.562103964789799</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>39.57528014622417</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>48.49091678695686</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10127,10 +10127,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>144.214782685998</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>182.1743485325283</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.562103964789799</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>367.4772904348212</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>39.57528014622505</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>182.1743485325283</v>
+        <v>144.2147826859979</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.562103964789799</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,13 +10586,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>169.0349537738431</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>41.32012845249449</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>56.08331319211993</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>182.1743485325288</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>169.0349537738427</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>119.8145819755572</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>182.1743485325287</v>
       </c>
       <c r="P39" t="n">
-        <v>182.1743485325288</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11063,19 +11063,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>53.48673753334111</v>
+        <v>73.17244739487649</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>56.08331319211993</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>182.1743485325288</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>403.8479888189003</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>169.0349537738427</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
         <v>182.1743485325288</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>17.37652311318107</v>
+        <v>17.37652311318283</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23431,7 @@
         <v>166.1259891509926</v>
       </c>
       <c r="H13" t="n">
-        <v>131.4821948188654</v>
+        <v>145.645714117422</v>
       </c>
       <c r="I13" t="n">
         <v>99.36513305182064</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>93.43664986691724</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.9769949054714</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>209.0974867460291</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>17.37652311318103</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>17.37652311318385</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.1259891509926</v>
       </c>
       <c r="H16" t="n">
         <v>145.645714117422</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>93.43664986691724</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>281.7868260301042</v>
+        <v>29.26550656409177</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>17.37652311318385</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>17.37652311318103</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>93.43664986691724</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>115.6608368791124</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>29.26550656409206</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>17.37652311318295</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>17.37652311318084</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>145.0001326593613</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>149.5138205079845</v>
+        <v>166.1259891509926</v>
       </c>
       <c r="H22" t="n">
         <v>145.645714117422</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>93.43664986691724</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>191.5149050577661</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>164.0165443348325</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>29.26550656409205</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.1259891509926</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.645714117422</v>
       </c>
       <c r="I28" t="n">
         <v>99.36513305182064</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>93.43664986691724</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.9769949054714</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>117.7762037879207</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>29.2655065640916</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>13.71446461463575</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>93.43664986691724</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.6608368791121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25123,19 +25123,19 @@
         <v>93.43664986691724</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>191.5149050577661</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>115.6608368791119</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>60.17624575624896</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-1.012949724099599e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>950906.5416150166</v>
+        <v>950906.5416150164</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>950906.5416150165</v>
+        <v>950906.5416150164</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>950906.5416150166</v>
+        <v>950906.5416150163</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>952850.0023454624</v>
+        <v>952850.0023454622</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>952850.0023454621</v>
+        <v>952850.0023454623</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>952850.0023454621</v>
+        <v>952850.0023454622</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>971081.4518945366</v>
+        <v>971081.4518945368</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>474112.6557336068</v>
+        <v>474112.6557336066</v>
       </c>
       <c r="F2" t="n">
-        <v>474112.6557336068</v>
+        <v>474112.6557336067</v>
       </c>
       <c r="G2" t="n">
-        <v>474112.6557336068</v>
+        <v>474112.6557336064</v>
       </c>
       <c r="H2" t="n">
-        <v>474112.6557336068</v>
+        <v>474112.6557336065</v>
       </c>
       <c r="I2" t="n">
-        <v>474942.5584774922</v>
+        <v>474942.5584774924</v>
       </c>
       <c r="J2" t="n">
         <v>474942.5584774922</v>
       </c>
       <c r="K2" t="n">
-        <v>474942.5584774922</v>
+        <v>474942.5584774923</v>
       </c>
       <c r="L2" t="n">
         <v>474942.5584774922</v>
@@ -26347,13 +26347,13 @@
         <v>492625.0619185696</v>
       </c>
       <c r="N2" t="n">
+        <v>492625.0619185694</v>
+      </c>
+      <c r="O2" t="n">
         <v>492625.0619185695</v>
       </c>
-      <c r="O2" t="n">
-        <v>492625.0619185694</v>
-      </c>
       <c r="P2" t="n">
-        <v>492625.0619185694</v>
+        <v>492625.0619185696</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1175720.182416075</v>
+        <v>1175720.182416074</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1190.677799108431</v>
+        <v>1190.677799108613</v>
       </c>
       <c r="J3" t="n">
         <v>10356.88390380388</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>279479.868328803</v>
+        <v>279479.8683288028</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>392795.5642185676</v>
       </c>
       <c r="E4" t="n">
-        <v>42979.79492890932</v>
+        <v>42979.79492890925</v>
       </c>
       <c r="F4" t="n">
-        <v>42979.79492890934</v>
+        <v>42979.79492890926</v>
       </c>
       <c r="G4" t="n">
-        <v>42979.79492890933</v>
+        <v>42979.79492890926</v>
       </c>
       <c r="H4" t="n">
-        <v>42979.79492890932</v>
+        <v>42979.79492890925</v>
       </c>
       <c r="I4" t="n">
-        <v>43334.72561640242</v>
+        <v>43334.72561640243</v>
       </c>
       <c r="J4" t="n">
         <v>43334.72561640247</v>
       </c>
       <c r="K4" t="n">
-        <v>43334.72561640241</v>
+        <v>43334.72561640245</v>
       </c>
       <c r="L4" t="n">
-        <v>43334.72561640243</v>
+        <v>43334.72561640244</v>
       </c>
       <c r="M4" t="n">
         <v>79570.29519409663</v>
       </c>
       <c r="N4" t="n">
-        <v>79570.2951940966</v>
+        <v>79570.29519409666</v>
       </c>
       <c r="O4" t="n">
-        <v>79570.2951940966</v>
+        <v>79570.29519409663</v>
       </c>
       <c r="P4" t="n">
-        <v>79570.2951940966</v>
+        <v>79570.29519409663</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>95169.7434947838</v>
+        <v>95169.74349478376</v>
       </c>
       <c r="F5" t="n">
-        <v>95169.7434947838</v>
+        <v>95169.74349478376</v>
       </c>
       <c r="G5" t="n">
-        <v>95169.7434947838</v>
+        <v>95169.74349478376</v>
       </c>
       <c r="H5" t="n">
-        <v>95169.7434947838</v>
+        <v>95169.74349478376</v>
       </c>
       <c r="I5" t="n">
         <v>95441.97927227334</v>
@@ -26500,16 +26500,16 @@
         <v>95441.97927227334</v>
       </c>
       <c r="M5" t="n">
-        <v>87688.5891447294</v>
+        <v>87688.58914472941</v>
       </c>
       <c r="N5" t="n">
         <v>87688.5891447294</v>
       </c>
       <c r="O5" t="n">
-        <v>87688.5891447294</v>
+        <v>87688.58914472941</v>
       </c>
       <c r="P5" t="n">
-        <v>87688.5891447294</v>
+        <v>87688.58914472941</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50529.73038163957</v>
+        <v>50529.73038163951</v>
       </c>
       <c r="C6" t="n">
         <v>63795.19798072243</v>
       </c>
       <c r="D6" t="n">
-        <v>63795.19798072249</v>
+        <v>63795.19798072243</v>
       </c>
       <c r="E6" t="n">
-        <v>-839757.0651061609</v>
+        <v>-839834.2001319316</v>
       </c>
       <c r="F6" t="n">
-        <v>335963.1173099136</v>
+        <v>335885.9822841429</v>
       </c>
       <c r="G6" t="n">
-        <v>335963.1173099136</v>
+        <v>335885.9822841427</v>
       </c>
       <c r="H6" t="n">
-        <v>335963.1173099136</v>
+        <v>335885.9822841428</v>
       </c>
       <c r="I6" t="n">
-        <v>334975.175789708</v>
+        <v>334901.4986920368</v>
       </c>
       <c r="J6" t="n">
-        <v>325808.9696850125</v>
+        <v>325735.2925873414</v>
       </c>
       <c r="K6" t="n">
-        <v>336165.8535888165</v>
+        <v>336092.1764911453</v>
       </c>
       <c r="L6" t="n">
-        <v>336165.8535888164</v>
+        <v>336092.1764911452</v>
       </c>
       <c r="M6" t="n">
-        <v>45886.3092509406</v>
+        <v>45886.30925094076</v>
       </c>
       <c r="N6" t="n">
+        <v>325366.1775797433</v>
+      </c>
+      <c r="O6" t="n">
         <v>325366.1775797434</v>
       </c>
-      <c r="O6" t="n">
-        <v>325366.1775797433</v>
-      </c>
       <c r="P6" t="n">
-        <v>325366.1775797433</v>
+        <v>325366.1775797435</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="N2" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="O2" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="P2" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
     </row>
     <row r="3">
@@ -26796,16 +26796,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.46887059475</v>
+        <v>1194.468870594749</v>
       </c>
       <c r="F4" t="n">
-        <v>1194.46887059475</v>
+        <v>1194.468870594749</v>
       </c>
       <c r="G4" t="n">
-        <v>1194.46887059475</v>
+        <v>1194.468870594749</v>
       </c>
       <c r="H4" t="n">
-        <v>1194.46887059475</v>
+        <v>1194.468870594749</v>
       </c>
       <c r="I4" t="n">
         <v>1198.946432724512</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1154.884993632909</v>
+        <v>1154.884993632908</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.477562129761964</v>
+        <v>4.477562129762646</v>
       </c>
       <c r="J4" t="n">
         <v>39.58387696184082</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>956.1436436962225</v>
+        <v>956.1436436962218</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1154.884993632909</v>
+        <v>1154.884993632908</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>367.2921687798708</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>390.4279579016907</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>9.253292998014642</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>110.2852409793091</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>107.8611886027982</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>102.4780383352215</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27509,19 +27509,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>166.0458411930903</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>193.2167101875847</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X3" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>157.2692687373636</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27594,13 +27594,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>227.5671465617125</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W4" t="n">
         <v>246.9391213747504</v>
       </c>
       <c r="X4" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,31 +27613,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>367.2921687798708</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>375.7188605532945</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>326.5493118569353</v>
+        <v>326.7881065446244</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27670,13 +27670,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C6" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27743,7 +27743,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>137.5642836021065</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27752,13 +27752,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>198.681699647694</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>140.2481032200967</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27828,10 +27828,10 @@
         <v>188.3617124664409</v>
       </c>
       <c r="U7" t="n">
-        <v>246.7351523946503</v>
+        <v>279.0629177303331</v>
       </c>
       <c r="V7" t="n">
-        <v>227.5671465617125</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,16 +27856,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>367.2921687798708</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>387.3133044288573</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,22 +27895,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>196.0945793274135</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27941,19 +27941,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>136.8176922758487</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="10">
@@ -28023,19 +28023,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>130.8799781651428</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,10 +28050,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28062,16 +28062,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>217.9680370670172</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="C35" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="D35" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="E35" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="F35" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="G35" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="H35" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="I35" t="n">
         <v>50.18709529452664</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="T35" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="U35" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="V35" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="W35" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="X35" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="Y35" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="C37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="D37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="E37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="F37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="G37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="H37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="I37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="J37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="K37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="L37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="M37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="N37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="O37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="P37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="R37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="S37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="T37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="U37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="V37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="W37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="X37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
       <c r="Y37" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141188</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="C38" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="D38" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="E38" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="F38" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="G38" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="H38" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="I38" t="n">
         <v>50.18709529452664</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="T38" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="U38" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="V38" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="W38" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="X38" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="Y38" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="C40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="D40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="E40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="F40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="G40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="H40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="I40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="J40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="K40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="L40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="M40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="N40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="O40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="P40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="R40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="S40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="T40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="U40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="V40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="W40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="X40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
       <c r="Y40" t="n">
-        <v>51.50630968141191</v>
+        <v>51.50630968141193</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="C41" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="D41" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="E41" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="F41" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="G41" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="H41" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="I41" t="n">
         <v>50.18709529452664</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="T41" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="U41" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="V41" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="W41" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="X41" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="Y41" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="C43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="D43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="E43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="F43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="G43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="H43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="I43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="J43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="K43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="L43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="M43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="N43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="O43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="P43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="Q43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="R43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="S43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="T43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="U43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="V43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="W43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="X43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="C44" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="D44" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="E44" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="F44" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="G44" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="H44" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="I44" t="n">
         <v>50.18709529452664</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="T44" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="U44" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="V44" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="W44" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="X44" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="Y44" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="C46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="D46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="E46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="F46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="G46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="H46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="I46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="J46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="K46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="L46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="M46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="N46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="O46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="P46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="R46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="S46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="T46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="U46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="V46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="W46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="X46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.50630968141191</v>
+        <v>51.5063096814119</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34705,16 @@
         <v>37.98452839772582</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L3" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,10 +34939,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L5" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,7 +34951,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q6" t="n">
         <v>39.58387696184059</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="P8" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>39.58387696184059</v>
@@ -35261,16 +35261,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N9" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>340.9282426646445</v>
       </c>
       <c r="K11" t="n">
-        <v>632.9275079594992</v>
+        <v>542.3316047073821</v>
       </c>
       <c r="L11" t="n">
-        <v>420.3460006370632</v>
+        <v>838.0072151875137</v>
       </c>
       <c r="M11" t="n">
-        <v>499.7052484637844</v>
+        <v>949.2187819566169</v>
       </c>
       <c r="N11" t="n">
-        <v>745.7468835495923</v>
+        <v>949.7983387255372</v>
       </c>
       <c r="O11" t="n">
-        <v>851.2235595317413</v>
+        <v>470.423378268996</v>
       </c>
       <c r="P11" t="n">
-        <v>688.4446820774356</v>
+        <v>366.6459739059529</v>
       </c>
       <c r="Q11" t="n">
-        <v>438.9915077203972</v>
+        <v>226.6765170604926</v>
       </c>
       <c r="R11" t="n">
-        <v>111.3004812659627</v>
+        <v>45.58406139298029</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,16 +35501,16 @@
         <v>447.2273542172478</v>
       </c>
       <c r="O12" t="n">
-        <v>386.6814185786693</v>
+        <v>404.8051659242579</v>
       </c>
       <c r="P12" t="n">
         <v>290.817579104746</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.0637324923625</v>
+        <v>143.9804193002432</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.95956584653102</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>340.9282426646445</v>
       </c>
       <c r="K14" t="n">
-        <v>360.1627005534671</v>
+        <v>308.7820953883344</v>
       </c>
       <c r="L14" t="n">
-        <v>420.3460006370632</v>
+        <v>838.0072151875137</v>
       </c>
       <c r="M14" t="n">
-        <v>949.2187819566169</v>
+        <v>851.7999063804391</v>
       </c>
       <c r="N14" t="n">
-        <v>949.7983387255372</v>
+        <v>512.451414313553</v>
       </c>
       <c r="O14" t="n">
-        <v>470.423378268996</v>
+        <v>851.2235595317413</v>
       </c>
       <c r="P14" t="n">
         <v>688.4446820774356</v>
       </c>
       <c r="Q14" t="n">
-        <v>438.9915077203972</v>
+        <v>226.6765170604926</v>
       </c>
       <c r="R14" t="n">
         <v>111.3004812659627</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>209.4248492913043</v>
+        <v>83.33381395089546</v>
       </c>
       <c r="K15" t="n">
-        <v>277.4583418477122</v>
+        <v>221.3750286555925</v>
       </c>
       <c r="L15" t="n">
         <v>344.4564910140729</v>
@@ -35744,7 +35744,7 @@
         <v>290.817579104746</v>
       </c>
       <c r="Q15" t="n">
-        <v>143.9804193002432</v>
+        <v>326.1547678327717</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,16 +35890,16 @@
         <v>838.0072151875137</v>
       </c>
       <c r="M17" t="n">
-        <v>696.1396844121185</v>
+        <v>499.7052484637844</v>
       </c>
       <c r="N17" t="n">
-        <v>512.451414313553</v>
+        <v>949.7983387255372</v>
       </c>
       <c r="O17" t="n">
         <v>470.423378268996</v>
       </c>
       <c r="P17" t="n">
-        <v>688.4446820774356</v>
+        <v>447.5321936137817</v>
       </c>
       <c r="Q17" t="n">
         <v>438.9915077203972</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>83.33381395089546</v>
+        <v>209.4248492913043</v>
       </c>
       <c r="K18" t="n">
-        <v>221.3750286555925</v>
+        <v>277.4583418477122</v>
       </c>
       <c r="L18" t="n">
         <v>344.4564910140729</v>
@@ -35981,7 +35981,7 @@
         <v>290.817579104746</v>
       </c>
       <c r="Q18" t="n">
-        <v>326.1547678327717</v>
+        <v>143.9804193002432</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>340.9282426646445</v>
       </c>
       <c r="K20" t="n">
-        <v>632.9275079594992</v>
+        <v>308.7820953883344</v>
       </c>
       <c r="L20" t="n">
         <v>838.0072151875137</v>
@@ -36130,19 +36130,19 @@
         <v>499.7052484637844</v>
       </c>
       <c r="N20" t="n">
-        <v>512.451414313553</v>
+        <v>949.7983387255372</v>
       </c>
       <c r="O20" t="n">
-        <v>851.2235595317413</v>
+        <v>831.6877129093938</v>
       </c>
       <c r="P20" t="n">
-        <v>504.0789367630242</v>
+        <v>688.4446820774356</v>
       </c>
       <c r="Q20" t="n">
-        <v>438.9915077203972</v>
+        <v>226.6765170604926</v>
       </c>
       <c r="R20" t="n">
-        <v>111.3004812659627</v>
+        <v>45.58406139298029</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>209.4248492913043</v>
+        <v>83.33381395089546</v>
       </c>
       <c r="K21" t="n">
-        <v>277.4583418477122</v>
+        <v>221.3750286555925</v>
       </c>
       <c r="L21" t="n">
-        <v>344.4564910140729</v>
+        <v>526.6308395466015</v>
       </c>
       <c r="M21" t="n">
         <v>421.5168701435572</v>
@@ -36361,19 +36361,19 @@
         <v>632.9275079594992</v>
       </c>
       <c r="L23" t="n">
-        <v>671.3708067909467</v>
+        <v>838.0072151875137</v>
       </c>
       <c r="M23" t="n">
-        <v>499.7052484637844</v>
+        <v>949.2187819566169</v>
       </c>
       <c r="N23" t="n">
         <v>512.451414313553</v>
       </c>
       <c r="O23" t="n">
-        <v>851.2235595317413</v>
+        <v>470.423378268996</v>
       </c>
       <c r="P23" t="n">
-        <v>688.4446820774356</v>
+        <v>453.0949214507817</v>
       </c>
       <c r="Q23" t="n">
         <v>438.9915077203972</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>209.4248492913043</v>
+        <v>83.33381395089546</v>
       </c>
       <c r="K24" t="n">
-        <v>277.4583418477121</v>
+        <v>221.3750286555925</v>
       </c>
       <c r="L24" t="n">
         <v>344.4564910140729</v>
@@ -36446,7 +36446,7 @@
         <v>421.5168701435572</v>
       </c>
       <c r="N24" t="n">
-        <v>447.2273542172478</v>
+        <v>629.4017027497761</v>
       </c>
       <c r="O24" t="n">
         <v>386.6814185786693</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>340.9282426646445</v>
+        <v>171.8316274925708</v>
       </c>
       <c r="K26" t="n">
-        <v>308.7820953883344</v>
+        <v>632.9275079594992</v>
       </c>
       <c r="L26" t="n">
         <v>420.3460006370632</v>
       </c>
       <c r="M26" t="n">
-        <v>949.2187819566169</v>
+        <v>694.7947360376633</v>
       </c>
       <c r="N26" t="n">
-        <v>638.1080995457708</v>
+        <v>949.7983387255372</v>
       </c>
       <c r="O26" t="n">
         <v>851.2235595317413</v>
@@ -36613,7 +36613,7 @@
         <v>688.4446820774356</v>
       </c>
       <c r="Q26" t="n">
-        <v>438.9915077203972</v>
+        <v>226.6765170604926</v>
       </c>
       <c r="R26" t="n">
         <v>111.3004812659627</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>209.4248492913043</v>
+        <v>83.33381395089546</v>
       </c>
       <c r="K27" t="n">
-        <v>277.4583418477126</v>
+        <v>221.3750286555925</v>
       </c>
       <c r="L27" t="n">
         <v>344.4564910140729</v>
       </c>
       <c r="M27" t="n">
-        <v>421.5168701435572</v>
+        <v>565.7316528295553</v>
       </c>
       <c r="N27" t="n">
         <v>447.2273542172478</v>
@@ -36695,7 +36695,7 @@
         <v>143.9804193002432</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.95956584653102</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>211.4069076387949</v>
+        <v>171.8316274925708</v>
       </c>
       <c r="K29" t="n">
-        <v>308.7820953883344</v>
+        <v>632.9275079594992</v>
       </c>
       <c r="L29" t="n">
-        <v>838.0072151875137</v>
+        <v>468.8369174240201</v>
       </c>
       <c r="M29" t="n">
-        <v>949.2187819566169</v>
+        <v>499.7052484637844</v>
       </c>
       <c r="N29" t="n">
         <v>949.7983387255372</v>
@@ -36847,10 +36847,10 @@
         <v>851.2235595317413</v>
       </c>
       <c r="P29" t="n">
-        <v>366.6459739059529</v>
+        <v>688.4446820774356</v>
       </c>
       <c r="Q29" t="n">
-        <v>226.6765170604926</v>
+        <v>438.9915077203972</v>
       </c>
       <c r="R29" t="n">
         <v>45.58406139298029</v>
@@ -36911,7 +36911,7 @@
         <v>83.33381395089546</v>
       </c>
       <c r="K30" t="n">
-        <v>221.3750286555925</v>
+        <v>365.5898113415906</v>
       </c>
       <c r="L30" t="n">
         <v>344.4564910140729</v>
@@ -36926,13 +36926,13 @@
         <v>386.6814185786693</v>
       </c>
       <c r="P30" t="n">
-        <v>472.9919276372743</v>
+        <v>290.817579104746</v>
       </c>
       <c r="Q30" t="n">
         <v>143.9804193002432</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.95956584653102</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8316274925708</v>
+        <v>340.9282426646445</v>
       </c>
       <c r="K32" t="n">
-        <v>308.7820953883344</v>
+        <v>632.9275079594992</v>
       </c>
       <c r="L32" t="n">
         <v>838.0072151875137</v>
       </c>
       <c r="M32" t="n">
-        <v>949.2187819566169</v>
+        <v>499.7052484637844</v>
       </c>
       <c r="N32" t="n">
-        <v>949.7983387255372</v>
+        <v>879.9287047483741</v>
       </c>
       <c r="O32" t="n">
         <v>851.2235595317413</v>
       </c>
       <c r="P32" t="n">
-        <v>406.2212540521779</v>
+        <v>366.6459739059529</v>
       </c>
       <c r="Q32" t="n">
         <v>226.6765170604926</v>
       </c>
       <c r="R32" t="n">
-        <v>45.58406139298029</v>
+        <v>111.3004812659627</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>386.6814185786693</v>
       </c>
       <c r="P33" t="n">
-        <v>472.9919276372743</v>
+        <v>435.0323617907439</v>
       </c>
       <c r="Q33" t="n">
         <v>143.9804193002432</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.95956584653102</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>340.9282426646445</v>
       </c>
       <c r="K35" t="n">
-        <v>477.8170491621776</v>
+        <v>308.7820953883344</v>
       </c>
       <c r="L35" t="n">
         <v>420.3460006370632</v>
       </c>
       <c r="M35" t="n">
-        <v>499.7052484637844</v>
+        <v>949.2187819566169</v>
       </c>
       <c r="N35" t="n">
         <v>512.451414313553</v>
@@ -37321,7 +37321,7 @@
         <v>470.423378268996</v>
       </c>
       <c r="P35" t="n">
-        <v>688.4446820774356</v>
+        <v>407.9661023584474</v>
       </c>
       <c r="Q35" t="n">
         <v>438.9915077203972</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>209.4248492913043</v>
+        <v>83.33381395089546</v>
       </c>
       <c r="K36" t="n">
-        <v>277.4583418477125</v>
+        <v>221.3750286555925</v>
       </c>
       <c r="L36" t="n">
         <v>344.4564910140729</v>
       </c>
       <c r="M36" t="n">
-        <v>421.5168701435572</v>
+        <v>603.691218676086</v>
       </c>
       <c r="N36" t="n">
         <v>447.2273542172478</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.00193723259837</v>
+        <v>90.00193723259834</v>
       </c>
       <c r="K37" t="n">
-        <v>245.9147710502367</v>
+        <v>245.9147710502366</v>
       </c>
       <c r="L37" t="n">
         <v>356.3695154226552</v>
@@ -37479,7 +37479,7 @@
         <v>339.6993261925811</v>
       </c>
       <c r="P37" t="n">
-        <v>274.3469573111246</v>
+        <v>274.3469573111245</v>
       </c>
       <c r="Q37" t="n">
         <v>121.5117646203632</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>340.9282426646445</v>
+        <v>171.8316274925708</v>
       </c>
       <c r="K38" t="n">
         <v>308.7820953883344</v>
@@ -37552,19 +37552,19 @@
         <v>499.7052484637844</v>
       </c>
       <c r="N38" t="n">
-        <v>512.451414313553</v>
+        <v>949.7983387255372</v>
       </c>
       <c r="O38" t="n">
-        <v>639.4583320428387</v>
+        <v>851.2235595317413</v>
       </c>
       <c r="P38" t="n">
-        <v>688.4446820774356</v>
+        <v>366.6459739059529</v>
       </c>
       <c r="Q38" t="n">
-        <v>438.9915077203972</v>
+        <v>346.4910990360497</v>
       </c>
       <c r="R38" t="n">
-        <v>111.3004812659627</v>
+        <v>45.58406139298029</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>447.2273542172478</v>
       </c>
       <c r="O39" t="n">
-        <v>386.6814185786693</v>
+        <v>568.855767111198</v>
       </c>
       <c r="P39" t="n">
-        <v>472.9919276372747</v>
+        <v>290.817579104746</v>
       </c>
       <c r="Q39" t="n">
         <v>143.9804193002432</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.00193723259837</v>
+        <v>90.00193723259839</v>
       </c>
       <c r="K40" t="n">
         <v>245.9147710502367</v>
@@ -37707,19 +37707,19 @@
         <v>356.3695154226552</v>
       </c>
       <c r="M40" t="n">
-        <v>383.4358788917926</v>
+        <v>383.4358788917927</v>
       </c>
       <c r="N40" t="n">
         <v>381.0328471722615</v>
       </c>
       <c r="O40" t="n">
-        <v>339.6993261925811</v>
+        <v>339.6993261925812</v>
       </c>
       <c r="P40" t="n">
         <v>274.3469573111246</v>
       </c>
       <c r="Q40" t="n">
-        <v>121.5117646203632</v>
+        <v>121.5117646203633</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,19 +37783,19 @@
         <v>308.7820953883344</v>
       </c>
       <c r="L41" t="n">
-        <v>420.3460006370632</v>
+        <v>838.0072151875137</v>
       </c>
       <c r="M41" t="n">
         <v>499.7052484637844</v>
       </c>
       <c r="N41" t="n">
-        <v>949.7983387255372</v>
+        <v>512.451414313553</v>
       </c>
       <c r="O41" t="n">
         <v>470.423378268996</v>
       </c>
       <c r="P41" t="n">
-        <v>420.132711439294</v>
+        <v>439.8184213008294</v>
       </c>
       <c r="Q41" t="n">
         <v>438.9915077203972</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>209.4248492913043</v>
+        <v>83.33381395089546</v>
       </c>
       <c r="K42" t="n">
-        <v>277.4583418477125</v>
+        <v>221.3750286555925</v>
       </c>
       <c r="L42" t="n">
         <v>344.4564910140729</v>
@@ -37874,7 +37874,7 @@
         <v>386.6814185786693</v>
       </c>
       <c r="P42" t="n">
-        <v>290.817579104746</v>
+        <v>472.9919276372747</v>
       </c>
       <c r="Q42" t="n">
         <v>143.9804193002432</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.00193723259837</v>
+        <v>90.00193723259835</v>
       </c>
       <c r="K43" t="n">
-        <v>245.9147710502367</v>
+        <v>245.9147710502366</v>
       </c>
       <c r="L43" t="n">
         <v>356.3695154226552</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>340.9282426646445</v>
+        <v>171.8316274925708</v>
       </c>
       <c r="K44" t="n">
         <v>308.7820953883344</v>
       </c>
       <c r="L44" t="n">
-        <v>420.3460006370632</v>
+        <v>824.1939894559636</v>
       </c>
       <c r="M44" t="n">
         <v>499.7052484637844</v>
@@ -38029,7 +38029,7 @@
         <v>512.451414313553</v>
       </c>
       <c r="O44" t="n">
-        <v>639.4583320428387</v>
+        <v>470.423378268996</v>
       </c>
       <c r="P44" t="n">
         <v>688.4446820774356</v>
@@ -38038,7 +38038,7 @@
         <v>438.9915077203972</v>
       </c>
       <c r="R44" t="n">
-        <v>111.3004812659627</v>
+        <v>45.58406139298029</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>83.33381395089546</v>
       </c>
       <c r="K45" t="n">
-        <v>403.5493771881213</v>
+        <v>221.3750286555925</v>
       </c>
       <c r="L45" t="n">
         <v>344.4564910140729</v>
       </c>
       <c r="M45" t="n">
-        <v>421.5168701435572</v>
+        <v>603.691218676086</v>
       </c>
       <c r="N45" t="n">
         <v>447.2273542172478</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.00193723259837</v>
+        <v>90.00193723259835</v>
       </c>
       <c r="K46" t="n">
-        <v>245.9147710502367</v>
+        <v>245.9147710502366</v>
       </c>
       <c r="L46" t="n">
         <v>356.3695154226552</v>
